--- a/2025 Excel Esports Chile - EggNet (Juan Jose Cifuentes) - Case and Answers.xlsx
+++ b/2025 Excel Esports Chile - EggNet (Juan Jose Cifuentes) - Case and Answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D30F2E0-BEB8-4BFD-81F6-4683BB94755D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F370AB38-16D6-4EA4-8CF7-76ED2210A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37470" yWindow="930" windowWidth="28800" windowHeight="15410" activeTab="4" xr2:uid="{39ECEF94-DF66-4760-9CB7-A4C951BAF80C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{39ECEF94-DF66-4760-9CB7-A4C951BAF80C}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="246">
   <si>
     <t>Juan José Cifuentes</t>
   </si>
@@ -833,6 +833,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1102,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1167,6 +1170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,7 +1555,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1951,17 +1960,23 @@
     <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1980,6 +1995,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2023,19 +2047,10 @@
     <xf numFmtId="3" fontId="44" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2178,14 +2193,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>34625</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>34626</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>2694</xdr:rowOff>
     </xdr:to>
@@ -2265,7 +2280,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Answers!$E$41:$E$50" spid="_x0000_s1052"/>
+                  <a14:cameraTool cellRange="Answers!$E$41:$E$50" spid="_x0000_s1056"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2307,14 +2322,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>13</xdr:col>
+          <xdr:col>14</xdr:col>
           <xdr:colOff>1081709</xdr:colOff>
           <xdr:row>250</xdr:row>
           <xdr:rowOff>38375</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>759129</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>759128</xdr:colOff>
           <xdr:row>252</xdr:row>
           <xdr:rowOff>40695</xdr:rowOff>
         </xdr:to>
@@ -2331,7 +2346,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$251:$H$252" spid="_x0000_s1053"/>
+                  <a14:cameraTool cellRange="$C$251:$H$252" spid="_x0000_s1057"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2894,10 +2909,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2D6CD5-B5A7-47A9-BB32-0028285CAAD9}">
   <sheetPr codeName="Sheet26"/>
-  <dimension ref="A1:Q288"/>
+  <dimension ref="A1:S288"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E258" sqref="E258:E277"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -2910,113 +2925,118 @@
     <col min="6" max="6" width="5.3984375" style="1" customWidth="1"/>
     <col min="7" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.3984375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.09765625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="16.69921875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="15.8984375" style="1"/>
+    <col min="10" max="12" width="11.09765625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="16.69921875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="15.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" customHeight="1"/>
-    <row r="2" spans="2:13" ht="59.25" customHeight="1">
-      <c r="B2" s="139" t="s">
+    <row r="1" spans="2:14" ht="15" customHeight="1"/>
+    <row r="2" spans="2:14" ht="59.25" customHeight="1">
+      <c r="B2" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="141"/>
-    </row>
-    <row r="3" spans="2:13" ht="15" customHeight="1"/>
-    <row r="4" spans="2:13" ht="33" customHeight="1">
-      <c r="B4" s="142" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1"/>
+    <row r="4" spans="2:14" ht="33" customHeight="1">
+      <c r="B4" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="142" t="s">
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="144"/>
-    </row>
-    <row r="5" spans="2:13" ht="196.2" customHeight="1">
+      <c r="N4" s="146"/>
+    </row>
+    <row r="5" spans="2:14" ht="196.2" customHeight="1">
       <c r="C5"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="2:13" ht="33" customHeight="1">
-      <c r="L6" s="142" t="s">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14" ht="33" customHeight="1">
+      <c r="M6" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="144"/>
-    </row>
-    <row r="7" spans="2:13" ht="31.95" customHeight="1">
-      <c r="K7" s="4"/>
+      <c r="N6" s="146"/>
+    </row>
+    <row r="7" spans="2:14" ht="31.95" customHeight="1">
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B8" s="145" t="s">
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="2:14" ht="21.75" customHeight="1">
+      <c r="B8" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-    </row>
-    <row r="9" spans="2:13" ht="152.4" customHeight="1">
-      <c r="B9" s="147" t="s">
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+    </row>
+    <row r="9" spans="2:14" ht="152.4" customHeight="1">
+      <c r="B9" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-    </row>
-    <row r="10" spans="2:13" ht="61.2" customHeight="1">
-      <c r="B10" s="148" t="s">
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="149"/>
+    </row>
+    <row r="10" spans="2:14" ht="61.2" customHeight="1">
+      <c r="B10" s="153" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1">
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3029,24 +3049,26 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="2:13" ht="21.75" customHeight="1">
-      <c r="B12" s="142" t="s">
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" ht="21.75" customHeight="1">
+      <c r="B12" s="144" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="144"/>
-    </row>
-    <row r="13" spans="2:13" ht="15" customHeight="1">
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="146"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" customHeight="1">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -3056,8 +3078,9 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="9" t="s">
         <v>113</v>
       </c>
@@ -3072,15 +3095,16 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="2:13" ht="15" customHeight="1" thickBot="1">
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" customHeight="1" thickBot="1">
       <c r="B15" s="11"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="2:13" ht="30.75" customHeight="1" thickBot="1">
+    <row r="16" spans="2:14" ht="30.75" customHeight="1" thickBot="1">
       <c r="B16" s="12" t="s">
         <v>114</v>
       </c>
@@ -3094,17 +3118,18 @@
         <v>117</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="149" t="s">
+      <c r="G16" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="151"/>
-    </row>
-    <row r="17" spans="2:16" ht="33.75" customHeight="1">
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="156"/>
+    </row>
+    <row r="17" spans="2:17" ht="33.75" customHeight="1">
       <c r="B17" s="15" t="s">
         <v>1</v>
       </c>
@@ -3119,17 +3144,18 @@
         <v>148</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="152" t="s">
+      <c r="G17" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-    </row>
-    <row r="18" spans="2:16" ht="33.75" customHeight="1">
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="157"/>
+    </row>
+    <row r="18" spans="2:17" ht="33.75" customHeight="1">
       <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
@@ -3144,17 +3170,18 @@
         <v>Diamond Egg</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="138" t="s">
+      <c r="G18" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-    </row>
-    <row r="19" spans="2:16" ht="33.75" customHeight="1">
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+    </row>
+    <row r="19" spans="2:17" ht="33.75" customHeight="1">
       <c r="B19" s="15" t="s">
         <v>4</v>
       </c>
@@ -3169,17 +3196,18 @@
         <v>2500000</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="138" t="s">
+      <c r="G19" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-    </row>
-    <row r="20" spans="2:16" ht="33.75" customHeight="1">
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+    </row>
+    <row r="20" spans="2:17" ht="33.75" customHeight="1">
       <c r="B20" s="15" t="s">
         <v>5</v>
       </c>
@@ -3193,25 +3221,26 @@
         <v>12</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="138" t="s">
+      <c r="G20" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-      <c r="O20" s="1" cm="1">
-        <f t="array" ref="O20:O39">_nL6*0.5</f>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="P20" s="1" cm="1">
+        <f t="array" ref="P20:P39">_nL6*0.5</f>
         <v>505000</v>
       </c>
-      <c r="P20" s="1">
-        <f>COUNTIFS(_xlfn.ANCHORARRAY(O20),"&gt;350000")</f>
+      <c r="Q20" s="1">
+        <f>COUNTIFS(_xlfn.ANCHORARRAY(P20),"&gt;350000")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="33.6" customHeight="1">
+    <row r="21" spans="2:17" ht="33.6" customHeight="1">
       <c r="B21" s="15" t="s">
         <v>6</v>
       </c>
@@ -3221,47 +3250,51 @@
       <c r="D21" s="16">
         <v>70</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="21">
+        <v>18</v>
+      </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="138" t="s">
+      <c r="G21" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="O21" s="1">
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
+      <c r="P21" s="1">
         <v>340000</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="15" customHeight="1">
+    <row r="22" spans="2:17" ht="15" customHeight="1">
       <c r="F22" s="7"/>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>625000</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="23.4">
-      <c r="B23" s="142" t="s">
+    <row r="23" spans="2:17" ht="23.4">
+      <c r="B23" s="144" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="144"/>
-      <c r="O23" s="1">
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="146"/>
+      <c r="P23" s="1">
         <v>400000</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="15" customHeight="1" thickBot="1">
+    <row r="24" spans="2:17" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -3274,11 +3307,12 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
-      <c r="O24" s="1">
+      <c r="N24" s="22"/>
+      <c r="P24" s="1">
         <v>385000</v>
       </c>
     </row>
-    <row r="25" spans="2:16" s="10" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+    <row r="25" spans="2:17" s="10" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
       <c r="B25" s="24" t="s">
         <v>124</v>
       </c>
@@ -3288,24 +3322,24 @@
       <c r="D25" s="18"/>
       <c r="E25" s="26"/>
       <c r="F25" s="18"/>
-      <c r="L25" s="27"/>
       <c r="M25" s="27"/>
-      <c r="O25" s="10">
+      <c r="N25" s="27"/>
+      <c r="P25" s="10">
         <v>765000</v>
       </c>
     </row>
-    <row r="26" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="M26" s="27"/>
-      <c r="O26" s="10">
+      <c r="N26" s="27"/>
+      <c r="P26" s="10">
         <v>465000</v>
       </c>
     </row>
-    <row r="27" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B27" s="26" t="s">
         <v>126</v>
       </c>
@@ -3313,24 +3347,24 @@
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="L27" s="27"/>
       <c r="M27" s="27"/>
-      <c r="O27" s="10">
+      <c r="N27" s="27"/>
+      <c r="P27" s="10">
         <v>400000</v>
       </c>
     </row>
-    <row r="28" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
-      <c r="L28" s="27"/>
       <c r="M28" s="27"/>
-      <c r="O28" s="10">
+      <c r="N28" s="27"/>
+      <c r="P28" s="10">
         <v>425000</v>
       </c>
     </row>
-    <row r="29" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B29" s="28" t="s">
         <v>127</v>
       </c>
@@ -3338,13 +3372,13 @@
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="L29" s="27"/>
       <c r="M29" s="27"/>
-      <c r="O29" s="10">
+      <c r="N29" s="27"/>
+      <c r="P29" s="10">
         <v>340000</v>
       </c>
     </row>
-    <row r="30" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B30" s="28" t="s">
         <v>128</v>
       </c>
@@ -3352,13 +3386,13 @@
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="L30" s="27"/>
       <c r="M30" s="27"/>
-      <c r="O30" s="10">
+      <c r="N30" s="27"/>
+      <c r="P30" s="10">
         <v>715000</v>
       </c>
     </row>
-    <row r="31" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B31" s="28" t="s">
         <v>129</v>
       </c>
@@ -3366,24 +3400,24 @@
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="L31" s="27"/>
       <c r="M31" s="27"/>
-      <c r="O31" s="10">
+      <c r="N31" s="27"/>
+      <c r="P31" s="10">
         <v>160000</v>
       </c>
     </row>
-    <row r="32" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="L32" s="27"/>
       <c r="M32" s="27"/>
-      <c r="O32" s="10">
+      <c r="N32" s="27"/>
+      <c r="P32" s="10">
         <v>625000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B33" s="29" t="s">
         <v>130</v>
       </c>
@@ -3391,13 +3425,13 @@
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="L33" s="27"/>
       <c r="M33" s="27"/>
-      <c r="O33" s="10">
+      <c r="N33" s="27"/>
+      <c r="P33" s="10">
         <v>210000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B34" s="31" t="s">
         <v>131</v>
       </c>
@@ -3405,13 +3439,13 @@
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
-      <c r="L34" s="27"/>
       <c r="M34" s="27"/>
-      <c r="O34" s="10">
+      <c r="N34" s="27"/>
+      <c r="P34" s="10">
         <v>150000</v>
       </c>
     </row>
-    <row r="35" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B35" s="29"/>
       <c r="C35" s="30" t="s">
         <v>132</v>
@@ -3419,24 +3453,24 @@
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
-      <c r="L35" s="27"/>
       <c r="M35" s="27"/>
-      <c r="O35" s="10">
+      <c r="N35" s="27"/>
+      <c r="P35" s="10">
         <v>150000</v>
       </c>
     </row>
-    <row r="36" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="36" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B36" s="29"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="26"/>
-      <c r="O36" s="10">
+      <c r="P36" s="10">
         <v>155000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" s="10" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
+    <row r="37" spans="2:16" s="10" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
       <c r="B37" s="12" t="s">
         <v>114</v>
       </c>
@@ -3456,17 +3490,17 @@
       <c r="H37" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="O37" s="10">
+      <c r="P37" s="10">
         <v>250000</v>
       </c>
     </row>
-    <row r="38" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F38" s="18"/>
-      <c r="O38" s="10">
+      <c r="P38" s="10">
         <v>765000</v>
       </c>
     </row>
-    <row r="39" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="39" spans="2:16" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B39" s="32" t="s">
         <v>135</v>
       </c>
@@ -3487,18 +3521,20 @@
         <v>2</v>
       </c>
       <c r="J39" s="37"/>
-      <c r="O39" s="10">
+      <c r="K39" s="37"/>
+      <c r="P39" s="10">
         <v>380000</v>
       </c>
     </row>
-    <row r="40" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="2:16" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="E40" s="38"/>
       <c r="F40" s="18"/>
       <c r="G40" s="39"/>
       <c r="H40" s="39"/>
       <c r="J40" s="37"/>
-    </row>
-    <row r="41" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K40" s="37"/>
+    </row>
+    <row r="41" spans="2:16" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B41" s="33">
         <v>1</v>
       </c>
@@ -3520,8 +3556,9 @@
         <v>4</v>
       </c>
       <c r="J41" s="37"/>
-    </row>
-    <row r="42" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K41" s="37"/>
+    </row>
+    <row r="42" spans="2:16" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B42" s="33">
         <v>2</v>
       </c>
@@ -3543,8 +3580,9 @@
         <v>5</v>
       </c>
       <c r="J42" s="37"/>
-    </row>
-    <row r="43" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K42" s="37"/>
+    </row>
+    <row r="43" spans="2:16" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B43" s="33">
         <v>3</v>
       </c>
@@ -3569,8 +3607,9 @@
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
       <c r="M43" s="37"/>
-    </row>
-    <row r="44" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N43" s="37"/>
+    </row>
+    <row r="44" spans="2:16" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B44" s="33">
         <v>4</v>
       </c>
@@ -3595,8 +3634,9 @@
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
-    </row>
-    <row r="45" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N44" s="37"/>
+    </row>
+    <row r="45" spans="2:16" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B45" s="33">
         <v>5</v>
       </c>
@@ -3621,8 +3661,9 @@
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
       <c r="M45" s="37"/>
-    </row>
-    <row r="46" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N45" s="37"/>
+    </row>
+    <row r="46" spans="2:16" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B46" s="33">
         <v>6</v>
       </c>
@@ -3647,8 +3688,9 @@
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
       <c r="M46" s="37"/>
-    </row>
-    <row r="47" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N46" s="37"/>
+    </row>
+    <row r="47" spans="2:16" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B47" s="33">
         <v>7</v>
       </c>
@@ -3673,8 +3715,9 @@
       <c r="K47" s="37"/>
       <c r="L47" s="37"/>
       <c r="M47" s="37"/>
-    </row>
-    <row r="48" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N47" s="37"/>
+    </row>
+    <row r="48" spans="2:16" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B48" s="33">
         <v>8</v>
       </c>
@@ -3699,8 +3742,9 @@
       <c r="K48" s="37"/>
       <c r="L48" s="37"/>
       <c r="M48" s="37"/>
-    </row>
-    <row r="49" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N48" s="37"/>
+    </row>
+    <row r="49" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B49" s="33">
         <v>9</v>
       </c>
@@ -3725,8 +3769,9 @@
       <c r="K49" s="37"/>
       <c r="L49" s="37"/>
       <c r="M49" s="37"/>
-    </row>
-    <row r="50" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N49" s="37"/>
+    </row>
+    <row r="50" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B50" s="33">
         <v>10</v>
       </c>
@@ -3751,20 +3796,21 @@
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
       <c r="M50" s="37"/>
-    </row>
-    <row r="51" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N50" s="37"/>
+    </row>
+    <row r="51" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F51" s="18"/>
-      <c r="K51" s="37"/>
       <c r="L51" s="37"/>
       <c r="M51" s="37"/>
-    </row>
-    <row r="52" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="N51" s="37"/>
+    </row>
+    <row r="52" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="F52" s="18"/>
-      <c r="K52" s="37"/>
       <c r="L52" s="37"/>
       <c r="M52" s="37"/>
-    </row>
-    <row r="53" spans="2:13" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="N52" s="37"/>
+    </row>
+    <row r="53" spans="2:14" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B53" s="24" t="s">
         <v>137</v>
       </c>
@@ -3774,11 +3820,11 @@
       <c r="E53" s="31"/>
       <c r="F53" s="18"/>
     </row>
-    <row r="54" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B54" s="29"/>
       <c r="F54" s="18"/>
     </row>
-    <row r="55" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="55" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B55" s="9" t="s">
         <v>139</v>
       </c>
@@ -3788,7 +3834,7 @@
       <c r="F55" s="53"/>
       <c r="G55" s="53"/>
     </row>
-    <row r="56" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="56" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
       <c r="D56" s="54"/>
@@ -3796,7 +3842,7 @@
       <c r="F56" s="54"/>
       <c r="G56" s="54"/>
     </row>
-    <row r="57" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="57" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B57" s="55" t="s">
         <v>140</v>
       </c>
@@ -3806,7 +3852,7 @@
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
     </row>
-    <row r="58" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="58" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B58" s="55" t="s">
         <v>141</v>
       </c>
@@ -3816,7 +3862,7 @@
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
     </row>
-    <row r="59" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="59" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B59" s="55" t="s">
         <v>142</v>
       </c>
@@ -3826,7 +3872,7 @@
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
     </row>
-    <row r="60" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="60" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B60" s="55"/>
       <c r="C60" s="29"/>
       <c r="D60" s="54"/>
@@ -3834,7 +3880,7 @@
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
     </row>
-    <row r="61" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="61" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B61" s="31" t="s">
         <v>143</v>
       </c>
@@ -3845,8 +3891,9 @@
       <c r="G61" s="54"/>
       <c r="I61" s="31"/>
       <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B62" s="31" t="s">
         <v>144</v>
       </c>
@@ -3857,8 +3904,9 @@
       <c r="G62" s="54"/>
       <c r="I62" s="31"/>
       <c r="J62" s="18"/>
-    </row>
-    <row r="63" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B63" s="31" t="s">
         <v>145</v>
       </c>
@@ -3869,8 +3917,9 @@
       <c r="G63" s="54"/>
       <c r="I63" s="31"/>
       <c r="J63" s="18"/>
-    </row>
-    <row r="64" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="C64" s="56" t="s">
         <v>146</v>
       </c>
@@ -3879,6 +3928,7 @@
       <c r="F64" s="54"/>
       <c r="G64" s="54"/>
       <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
     </row>
     <row r="65" spans="2:9" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B65" s="29"/>
@@ -4220,7 +4270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="81" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B81" s="33">
         <v>22</v>
       </c>
@@ -4245,7 +4295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="82" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B82" s="33">
         <v>23</v>
       </c>
@@ -4270,7 +4320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="83" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B83" s="33">
         <v>24</v>
       </c>
@@ -4295,7 +4345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="84" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B84" s="33">
         <v>25</v>
       </c>
@@ -4320,7 +4370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="85" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B85" s="33">
         <v>26</v>
       </c>
@@ -4345,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="86" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B86" s="33">
         <v>27</v>
       </c>
@@ -4370,7 +4420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="87" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B87" s="33">
         <v>28</v>
       </c>
@@ -4395,7 +4445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="88" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B88" s="33">
         <v>29</v>
       </c>
@@ -4420,7 +4470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="89" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B89" s="33">
         <v>30</v>
       </c>
@@ -4445,14 +4495,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:10" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="2:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F90" s="18"/>
       <c r="I90" s="57"/>
     </row>
-    <row r="91" spans="2:10" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="91" spans="2:11" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="F91" s="18"/>
     </row>
-    <row r="92" spans="2:10" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+    <row r="92" spans="2:11" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B92" s="24" t="s">
         <v>149</v>
       </c>
@@ -4465,8 +4515,9 @@
       <c r="G92" s="59"/>
       <c r="I92" s="37"/>
       <c r="J92" s="60"/>
-    </row>
-    <row r="93" spans="2:10" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="K92" s="60"/>
+    </row>
+    <row r="93" spans="2:11" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B93" s="29"/>
       <c r="D93" s="37"/>
       <c r="E93" s="37"/>
@@ -4474,8 +4525,9 @@
       <c r="G93" s="59"/>
       <c r="I93" s="37"/>
       <c r="J93" s="60"/>
-    </row>
-    <row r="94" spans="2:10" s="10" customFormat="1" ht="14.4" customHeight="1">
+      <c r="K93" s="60"/>
+    </row>
+    <row r="94" spans="2:11" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B94" s="9" t="s">
         <v>151</v>
       </c>
@@ -4485,7 +4537,7 @@
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="2:10" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="95" spans="2:11" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B95" s="54"/>
       <c r="C95" s="54"/>
       <c r="D95" s="54"/>
@@ -4493,7 +4545,7 @@
       <c r="F95" s="54"/>
       <c r="G95" s="54"/>
     </row>
-    <row r="96" spans="2:10" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="96" spans="2:11" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B96" s="55" t="s">
         <v>152</v>
       </c>
@@ -4503,7 +4555,7 @@
       <c r="F96" s="54"/>
       <c r="G96" s="54"/>
     </row>
-    <row r="97" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="97" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B97" s="55" t="s">
         <v>153</v>
       </c>
@@ -4513,7 +4565,7 @@
       <c r="F97" s="54"/>
       <c r="G97" s="54"/>
     </row>
-    <row r="98" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="98" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B98" s="55"/>
       <c r="C98" s="54"/>
       <c r="D98" s="54"/>
@@ -4521,7 +4573,7 @@
       <c r="F98" s="54"/>
       <c r="G98" s="54"/>
     </row>
-    <row r="99" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="99" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B99" s="29" t="s">
         <v>154</v>
       </c>
@@ -4531,7 +4583,7 @@
       <c r="F99" s="54"/>
       <c r="G99" s="54"/>
     </row>
-    <row r="100" spans="2:13" s="10" customFormat="1" ht="14.4" customHeight="1">
+    <row r="100" spans="2:14" s="10" customFormat="1" ht="14.4" customHeight="1">
       <c r="B100" s="29"/>
       <c r="C100" s="30" t="s">
         <v>155</v>
@@ -4541,7 +4593,7 @@
       <c r="F100" s="54"/>
       <c r="G100" s="54"/>
     </row>
-    <row r="101" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="101" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
@@ -4551,11 +4603,12 @@
       <c r="H101" s="60"/>
       <c r="I101" s="37"/>
       <c r="J101" s="60"/>
-      <c r="K101" s="37"/>
+      <c r="K101" s="60"/>
       <c r="L101" s="37"/>
       <c r="M101" s="37"/>
-    </row>
-    <row r="102" spans="2:13" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="N101" s="37"/>
+    </row>
+    <row r="102" spans="2:14" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B102" s="12" t="s">
         <v>114</v>
       </c>
@@ -4576,18 +4629,20 @@
         <v>157</v>
       </c>
       <c r="J102" s="60"/>
-      <c r="K102" s="37"/>
+      <c r="K102" s="60"/>
       <c r="L102" s="37"/>
       <c r="M102" s="37"/>
-    </row>
-    <row r="103" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N102" s="37"/>
+    </row>
+    <row r="103" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F103" s="18"/>
       <c r="J103" s="60"/>
-      <c r="K103" s="37"/>
+      <c r="K103" s="60"/>
       <c r="L103" s="37"/>
       <c r="M103" s="37"/>
-    </row>
-    <row r="104" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N103" s="37"/>
+    </row>
+    <row r="104" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B104" s="32" t="s">
         <v>158</v>
       </c>
@@ -4611,20 +4666,22 @@
         <f t="array" ref="J104">_xlfn.XLOOKUP(INDEX(_nMap,G104,H104),Legend!$B$3:$B$12,Legend!$D$3:$D$12)</f>
         <v>250000</v>
       </c>
-      <c r="K104" s="37"/>
+      <c r="K104" s="60"/>
       <c r="L104" s="37"/>
       <c r="M104" s="37"/>
-    </row>
-    <row r="105" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N104" s="37"/>
+    </row>
+    <row r="105" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F105" s="18"/>
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
       <c r="J105" s="60"/>
-      <c r="K105" s="37"/>
+      <c r="K105" s="60"/>
       <c r="L105" s="37"/>
       <c r="M105" s="37"/>
-    </row>
-    <row r="106" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N105" s="37"/>
+    </row>
+    <row r="106" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B106" s="33">
         <v>31</v>
       </c>
@@ -4646,11 +4703,12 @@
         <v>2</v>
       </c>
       <c r="J106" s="60"/>
-      <c r="K106" s="37"/>
+      <c r="K106" s="60"/>
       <c r="L106" s="37"/>
       <c r="M106" s="37"/>
-    </row>
-    <row r="107" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N106" s="37"/>
+    </row>
+    <row r="107" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B107" s="33">
         <v>32</v>
       </c>
@@ -4672,11 +4730,12 @@
         <v>4</v>
       </c>
       <c r="J107" s="60"/>
-      <c r="K107" s="37"/>
+      <c r="K107" s="60"/>
       <c r="L107" s="37"/>
       <c r="M107" s="37"/>
-    </row>
-    <row r="108" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N107" s="37"/>
+    </row>
+    <row r="108" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B108" s="33">
         <v>33</v>
       </c>
@@ -4698,11 +4757,12 @@
         <v>16</v>
       </c>
       <c r="J108" s="60"/>
-      <c r="K108" s="37"/>
+      <c r="K108" s="60"/>
       <c r="L108" s="37"/>
       <c r="M108" s="37"/>
-    </row>
-    <row r="109" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N108" s="37"/>
+    </row>
+    <row r="109" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B109" s="33">
         <v>34</v>
       </c>
@@ -4724,11 +4784,12 @@
         <v>14</v>
       </c>
       <c r="J109" s="60"/>
-      <c r="K109" s="37"/>
+      <c r="K109" s="60"/>
       <c r="L109" s="37"/>
       <c r="M109" s="37"/>
-    </row>
-    <row r="110" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N109" s="37"/>
+    </row>
+    <row r="110" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B110" s="33">
         <v>35</v>
       </c>
@@ -4750,11 +4811,12 @@
         <v>4</v>
       </c>
       <c r="J110" s="60"/>
-      <c r="K110" s="37"/>
+      <c r="K110" s="60"/>
       <c r="L110" s="37"/>
       <c r="M110" s="37"/>
-    </row>
-    <row r="111" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N110" s="37"/>
+    </row>
+    <row r="111" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B111" s="33">
         <v>36</v>
       </c>
@@ -4776,11 +4838,12 @@
         <v>18</v>
       </c>
       <c r="J111" s="60"/>
-      <c r="K111" s="37"/>
+      <c r="K111" s="60"/>
       <c r="L111" s="37"/>
       <c r="M111" s="37"/>
-    </row>
-    <row r="112" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N111" s="37"/>
+    </row>
+    <row r="112" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B112" s="33">
         <v>37</v>
       </c>
@@ -4802,11 +4865,12 @@
         <v>9</v>
       </c>
       <c r="J112" s="60"/>
-      <c r="K112" s="37"/>
+      <c r="K112" s="60"/>
       <c r="L112" s="37"/>
       <c r="M112" s="37"/>
-    </row>
-    <row r="113" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N112" s="37"/>
+    </row>
+    <row r="113" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B113" s="33">
         <v>38</v>
       </c>
@@ -4828,11 +4892,12 @@
         <v>9</v>
       </c>
       <c r="J113" s="60"/>
-      <c r="K113" s="37"/>
+      <c r="K113" s="60"/>
       <c r="L113" s="37"/>
       <c r="M113" s="37"/>
-    </row>
-    <row r="114" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N113" s="37"/>
+    </row>
+    <row r="114" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B114" s="33">
         <v>39</v>
       </c>
@@ -4854,11 +4919,12 @@
         <v>16</v>
       </c>
       <c r="J114" s="60"/>
-      <c r="K114" s="37"/>
+      <c r="K114" s="60"/>
       <c r="L114" s="37"/>
       <c r="M114" s="37"/>
-    </row>
-    <row r="115" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N114" s="37"/>
+    </row>
+    <row r="115" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B115" s="33">
         <v>40</v>
       </c>
@@ -4880,11 +4946,12 @@
         <v>13</v>
       </c>
       <c r="J115" s="60"/>
-      <c r="K115" s="37"/>
+      <c r="K115" s="60"/>
       <c r="L115" s="37"/>
       <c r="M115" s="37"/>
-    </row>
-    <row r="116" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N115" s="37"/>
+    </row>
+    <row r="116" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B116" s="33">
         <v>41</v>
       </c>
@@ -4906,11 +4973,12 @@
         <v>21</v>
       </c>
       <c r="J116" s="60"/>
-      <c r="K116" s="37"/>
+      <c r="K116" s="60"/>
       <c r="L116" s="37"/>
       <c r="M116" s="37"/>
-    </row>
-    <row r="117" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N116" s="37"/>
+    </row>
+    <row r="117" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B117" s="33">
         <v>42</v>
       </c>
@@ -4932,11 +5000,12 @@
         <v>10</v>
       </c>
       <c r="J117" s="60"/>
-      <c r="K117" s="37"/>
+      <c r="K117" s="60"/>
       <c r="L117" s="37"/>
       <c r="M117" s="37"/>
-    </row>
-    <row r="118" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N117" s="37"/>
+    </row>
+    <row r="118" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B118" s="33">
         <v>43</v>
       </c>
@@ -4958,11 +5027,12 @@
         <v>12</v>
       </c>
       <c r="J118" s="60"/>
-      <c r="K118" s="37"/>
+      <c r="K118" s="60"/>
       <c r="L118" s="37"/>
       <c r="M118" s="37"/>
-    </row>
-    <row r="119" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N118" s="37"/>
+    </row>
+    <row r="119" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B119" s="33">
         <v>44</v>
       </c>
@@ -4984,11 +5054,12 @@
         <v>8</v>
       </c>
       <c r="J119" s="60"/>
-      <c r="K119" s="37"/>
+      <c r="K119" s="60"/>
       <c r="L119" s="37"/>
       <c r="M119" s="37"/>
-    </row>
-    <row r="120" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N119" s="37"/>
+    </row>
+    <row r="120" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B120" s="33">
         <v>45</v>
       </c>
@@ -5010,11 +5081,12 @@
         <v>9</v>
       </c>
       <c r="J120" s="60"/>
-      <c r="K120" s="37"/>
+      <c r="K120" s="60"/>
       <c r="L120" s="37"/>
       <c r="M120" s="37"/>
-    </row>
-    <row r="121" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N120" s="37"/>
+    </row>
+    <row r="121" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B121" s="33">
         <v>46</v>
       </c>
@@ -5036,11 +5108,12 @@
         <v>15</v>
       </c>
       <c r="J121" s="60"/>
-      <c r="K121" s="37"/>
+      <c r="K121" s="60"/>
       <c r="L121" s="37"/>
       <c r="M121" s="37"/>
-    </row>
-    <row r="122" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N121" s="37"/>
+    </row>
+    <row r="122" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B122" s="33">
         <v>47</v>
       </c>
@@ -5062,11 +5135,12 @@
         <v>12</v>
       </c>
       <c r="J122" s="60"/>
-      <c r="K122" s="37"/>
+      <c r="K122" s="60"/>
       <c r="L122" s="37"/>
       <c r="M122" s="37"/>
-    </row>
-    <row r="123" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N122" s="37"/>
+    </row>
+    <row r="123" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B123" s="33">
         <v>48</v>
       </c>
@@ -5088,11 +5162,12 @@
         <v>9</v>
       </c>
       <c r="J123" s="60"/>
-      <c r="K123" s="37"/>
+      <c r="K123" s="60"/>
       <c r="L123" s="37"/>
       <c r="M123" s="37"/>
-    </row>
-    <row r="124" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N123" s="37"/>
+    </row>
+    <row r="124" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B124" s="33">
         <v>49</v>
       </c>
@@ -5114,11 +5189,12 @@
         <v>13</v>
       </c>
       <c r="J124" s="60"/>
-      <c r="K124" s="37"/>
+      <c r="K124" s="60"/>
       <c r="L124" s="37"/>
       <c r="M124" s="37"/>
-    </row>
-    <row r="125" spans="1:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N124" s="37"/>
+    </row>
+    <row r="125" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B125" s="33">
         <v>50</v>
       </c>
@@ -5140,11 +5216,12 @@
         <v>3</v>
       </c>
       <c r="J125" s="60"/>
-      <c r="K125" s="37"/>
+      <c r="K125" s="60"/>
       <c r="L125" s="37"/>
       <c r="M125" s="37"/>
-    </row>
-    <row r="126" spans="1:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N125" s="37"/>
+    </row>
+    <row r="126" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="37"/>
       <c r="B126" s="37"/>
       <c r="C126" s="37"/>
@@ -5155,11 +5232,12 @@
       <c r="H126" s="37"/>
       <c r="I126" s="37"/>
       <c r="J126" s="60"/>
-      <c r="K126" s="37"/>
+      <c r="K126" s="60"/>
       <c r="L126" s="37"/>
       <c r="M126" s="37"/>
-    </row>
-    <row r="127" spans="1:13" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="N126" s="37"/>
+    </row>
+    <row r="127" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A127" s="37"/>
       <c r="B127" s="37"/>
       <c r="C127" s="37"/>
@@ -5169,11 +5247,11 @@
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
       <c r="I127" s="37"/>
-      <c r="K127" s="37"/>
       <c r="L127" s="37"/>
       <c r="M127" s="37"/>
-    </row>
-    <row r="128" spans="1:13" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="N127" s="37"/>
+    </row>
+    <row r="128" spans="1:14" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B128" s="24" t="s">
         <v>159</v>
       </c>
@@ -5181,18 +5259,18 @@
         <v>150</v>
       </c>
       <c r="F128" s="18"/>
-      <c r="K128" s="37"/>
       <c r="L128" s="37"/>
       <c r="M128" s="37"/>
-    </row>
-    <row r="129" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N128" s="37"/>
+    </row>
+    <row r="129" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B129" s="29"/>
       <c r="F129" s="18"/>
-      <c r="K129" s="37"/>
       <c r="L129" s="37"/>
       <c r="M129" s="37"/>
-    </row>
-    <row r="130" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N129" s="37"/>
+    </row>
+    <row r="130" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B130" s="29" t="s">
         <v>160</v>
       </c>
@@ -5201,14 +5279,14 @@
       <c r="G130" s="60"/>
       <c r="I130" s="37"/>
     </row>
-    <row r="131" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="131" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B131" s="29"/>
       <c r="C131" s="18"/>
       <c r="F131" s="18"/>
       <c r="G131" s="60"/>
       <c r="I131" s="37"/>
     </row>
-    <row r="132" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="132" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B132" s="55" t="s">
         <v>161</v>
       </c>
@@ -5217,7 +5295,7 @@
       <c r="G132" s="60"/>
       <c r="I132" s="37"/>
     </row>
-    <row r="133" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="133" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B133" s="55" t="s">
         <v>162</v>
       </c>
@@ -5226,11 +5304,12 @@
       <c r="H133" s="60"/>
       <c r="I133" s="37"/>
       <c r="J133" s="60"/>
-      <c r="K133" s="37"/>
+      <c r="K133" s="60"/>
       <c r="L133" s="37"/>
       <c r="M133" s="37"/>
-    </row>
-    <row r="134" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N133" s="37"/>
+    </row>
+    <row r="134" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B134" s="55" t="s">
         <v>163</v>
       </c>
@@ -5239,22 +5318,24 @@
       <c r="H134" s="60"/>
       <c r="I134" s="37"/>
       <c r="J134" s="60"/>
-      <c r="K134" s="37"/>
+      <c r="K134" s="60"/>
       <c r="L134" s="37"/>
       <c r="M134" s="37"/>
-    </row>
-    <row r="135" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N134" s="37"/>
+    </row>
+    <row r="135" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="C135" s="30"/>
       <c r="F135" s="18"/>
       <c r="G135" s="60"/>
       <c r="H135" s="60"/>
       <c r="I135" s="37"/>
       <c r="J135" s="60"/>
-      <c r="K135" s="37"/>
+      <c r="K135" s="60"/>
       <c r="L135" s="37"/>
       <c r="M135" s="37"/>
-    </row>
-    <row r="136" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N135" s="37"/>
+    </row>
+    <row r="136" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B136" s="31" t="s">
         <v>164</v>
       </c>
@@ -5264,11 +5345,12 @@
       <c r="H136" s="60"/>
       <c r="I136" s="37"/>
       <c r="J136" s="60"/>
-      <c r="K136" s="37"/>
+      <c r="K136" s="60"/>
       <c r="L136" s="37"/>
       <c r="M136" s="37"/>
-    </row>
-    <row r="137" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N136" s="37"/>
+    </row>
+    <row r="137" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B137" s="31" t="s">
         <v>165</v>
       </c>
@@ -5278,11 +5360,12 @@
       <c r="H137" s="60"/>
       <c r="I137" s="37"/>
       <c r="J137" s="60"/>
-      <c r="K137" s="37"/>
+      <c r="K137" s="60"/>
       <c r="L137" s="37"/>
       <c r="M137" s="37"/>
-    </row>
-    <row r="138" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N137" s="37"/>
+    </row>
+    <row r="138" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B138" s="29"/>
       <c r="C138" s="30" t="s">
         <v>166</v>
@@ -5292,18 +5375,19 @@
       <c r="H138" s="60"/>
       <c r="I138" s="37"/>
       <c r="J138" s="60"/>
-      <c r="K138" s="37"/>
+      <c r="K138" s="60"/>
       <c r="L138" s="37"/>
       <c r="M138" s="37"/>
-    </row>
-    <row r="139" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="N138" s="37"/>
+    </row>
+    <row r="139" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B139" s="29"/>
       <c r="F139" s="18"/>
       <c r="G139" s="26"/>
       <c r="H139" s="37"/>
       <c r="I139" s="37"/>
     </row>
-    <row r="140" spans="2:13" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+    <row r="140" spans="2:14" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B140" s="12" t="s">
         <v>114</v>
       </c>
@@ -5322,13 +5406,15 @@
       </c>
       <c r="H140" s="60"/>
       <c r="J140" s="60"/>
-    </row>
-    <row r="141" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="K140" s="60"/>
+    </row>
+    <row r="141" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F141" s="18"/>
       <c r="H141" s="60"/>
       <c r="J141" s="60"/>
-    </row>
-    <row r="142" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K141" s="60"/>
+    </row>
+    <row r="142" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B142" s="32" t="s">
         <v>168</v>
       </c>
@@ -5347,16 +5433,18 @@
       </c>
       <c r="H142" s="60"/>
       <c r="J142" s="60"/>
-    </row>
-    <row r="143" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="K142" s="60"/>
+    </row>
+    <row r="143" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F143" s="18"/>
       <c r="G143" s="39"/>
       <c r="H143" s="60"/>
       <c r="J143" s="60"/>
-      <c r="L143" s="62"/>
+      <c r="K143" s="60"/>
       <c r="M143" s="62"/>
-    </row>
-    <row r="144" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N143" s="62"/>
+    </row>
+    <row r="144" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B144" s="33">
         <v>51</v>
       </c>
@@ -5376,8 +5464,9 @@
       </c>
       <c r="H144" s="60"/>
       <c r="J144" s="60"/>
-    </row>
-    <row r="145" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K144" s="60"/>
+    </row>
+    <row r="145" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B145" s="33">
         <v>52</v>
       </c>
@@ -5397,8 +5486,9 @@
       </c>
       <c r="H145" s="60"/>
       <c r="J145" s="60"/>
-    </row>
-    <row r="146" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K145" s="60"/>
+    </row>
+    <row r="146" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B146" s="33">
         <v>53</v>
       </c>
@@ -5418,8 +5508,9 @@
       </c>
       <c r="H146" s="60"/>
       <c r="J146" s="60"/>
-    </row>
-    <row r="147" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K146" s="60"/>
+    </row>
+    <row r="147" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B147" s="33">
         <v>54</v>
       </c>
@@ -5439,8 +5530,9 @@
       </c>
       <c r="H147" s="60"/>
       <c r="J147" s="60"/>
-    </row>
-    <row r="148" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K147" s="60"/>
+    </row>
+    <row r="148" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B148" s="33">
         <v>55</v>
       </c>
@@ -5460,8 +5552,9 @@
       </c>
       <c r="H148" s="60"/>
       <c r="J148" s="60"/>
-    </row>
-    <row r="149" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K148" s="60"/>
+    </row>
+    <row r="149" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B149" s="33">
         <v>56</v>
       </c>
@@ -5481,8 +5574,9 @@
       </c>
       <c r="H149" s="60"/>
       <c r="J149" s="60"/>
-    </row>
-    <row r="150" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K149" s="60"/>
+    </row>
+    <row r="150" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B150" s="33">
         <v>57</v>
       </c>
@@ -5502,8 +5596,9 @@
       </c>
       <c r="H150" s="60"/>
       <c r="J150" s="60"/>
-    </row>
-    <row r="151" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K150" s="60"/>
+    </row>
+    <row r="151" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B151" s="33">
         <v>58</v>
       </c>
@@ -5523,8 +5618,9 @@
       </c>
       <c r="H151" s="60"/>
       <c r="J151" s="60"/>
-    </row>
-    <row r="152" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K151" s="60"/>
+    </row>
+    <row r="152" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B152" s="33">
         <v>59</v>
       </c>
@@ -5544,8 +5640,9 @@
       </c>
       <c r="H152" s="60"/>
       <c r="J152" s="60"/>
-    </row>
-    <row r="153" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K152" s="60"/>
+    </row>
+    <row r="153" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B153" s="33">
         <v>60</v>
       </c>
@@ -5565,8 +5662,9 @@
       </c>
       <c r="H153" s="60"/>
       <c r="J153" s="60"/>
-    </row>
-    <row r="154" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K153" s="60"/>
+    </row>
+    <row r="154" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B154" s="33">
         <v>61</v>
       </c>
@@ -5586,8 +5684,9 @@
       </c>
       <c r="H154" s="60"/>
       <c r="J154" s="60"/>
-    </row>
-    <row r="155" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K154" s="60"/>
+    </row>
+    <row r="155" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B155" s="33">
         <v>62</v>
       </c>
@@ -5607,8 +5706,9 @@
       </c>
       <c r="H155" s="60"/>
       <c r="J155" s="60"/>
-    </row>
-    <row r="156" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K155" s="60"/>
+    </row>
+    <row r="156" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B156" s="33">
         <v>63</v>
       </c>
@@ -5628,8 +5728,9 @@
       </c>
       <c r="H156" s="60"/>
       <c r="J156" s="60"/>
-    </row>
-    <row r="157" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K156" s="60"/>
+    </row>
+    <row r="157" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B157" s="33">
         <v>64</v>
       </c>
@@ -5649,8 +5750,9 @@
       </c>
       <c r="H157" s="60"/>
       <c r="J157" s="60"/>
-    </row>
-    <row r="158" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K157" s="60"/>
+    </row>
+    <row r="158" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B158" s="33">
         <v>65</v>
       </c>
@@ -5670,8 +5772,9 @@
       </c>
       <c r="H158" s="60"/>
       <c r="J158" s="60"/>
-    </row>
-    <row r="159" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K158" s="60"/>
+    </row>
+    <row r="159" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B159" s="33">
         <v>66</v>
       </c>
@@ -5691,8 +5794,9 @@
       </c>
       <c r="H159" s="60"/>
       <c r="J159" s="60"/>
-    </row>
-    <row r="160" spans="2:10" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K159" s="60"/>
+    </row>
+    <row r="160" spans="2:11" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B160" s="33">
         <v>67</v>
       </c>
@@ -5712,8 +5816,9 @@
       </c>
       <c r="H160" s="60"/>
       <c r="J160" s="60"/>
-    </row>
-    <row r="161" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K160" s="60"/>
+    </row>
+    <row r="161" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B161" s="33">
         <v>68</v>
       </c>
@@ -5733,8 +5838,9 @@
       </c>
       <c r="H161" s="60"/>
       <c r="J161" s="60"/>
-    </row>
-    <row r="162" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K161" s="60"/>
+    </row>
+    <row r="162" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B162" s="33">
         <v>69</v>
       </c>
@@ -5754,8 +5860,9 @@
       </c>
       <c r="H162" s="60"/>
       <c r="J162" s="60"/>
-    </row>
-    <row r="163" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K162" s="60"/>
+    </row>
+    <row r="163" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B163" s="33">
         <v>70</v>
       </c>
@@ -5775,8 +5882,9 @@
       </c>
       <c r="H163" s="60"/>
       <c r="J163" s="60"/>
-    </row>
-    <row r="164" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="K163" s="60"/>
+    </row>
+    <row r="164" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B164" s="37"/>
       <c r="C164" s="37"/>
       <c r="D164" s="37"/>
@@ -5786,8 +5894,9 @@
       <c r="H164" s="37"/>
       <c r="I164" s="37"/>
       <c r="J164" s="60"/>
-    </row>
-    <row r="165" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="K164" s="60"/>
+    </row>
+    <row r="165" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B165" s="37"/>
       <c r="C165" s="37"/>
       <c r="D165" s="37"/>
@@ -5797,8 +5906,9 @@
       <c r="H165" s="37"/>
       <c r="I165" s="37"/>
       <c r="J165" s="60"/>
-    </row>
-    <row r="166" spans="2:13" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="K165" s="60"/>
+    </row>
+    <row r="166" spans="2:14" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B166" s="24" t="s">
         <v>169</v>
       </c>
@@ -5811,11 +5921,11 @@
       <c r="G166" s="37"/>
       <c r="H166" s="37"/>
       <c r="I166" s="37"/>
-      <c r="K166" s="37"/>
       <c r="L166" s="37"/>
       <c r="M166" s="37"/>
-    </row>
-    <row r="167" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N166" s="37"/>
+    </row>
+    <row r="167" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B167" s="29"/>
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
@@ -5824,11 +5934,11 @@
       <c r="G167" s="37"/>
       <c r="H167" s="37"/>
       <c r="I167" s="37"/>
-      <c r="K167" s="37"/>
       <c r="L167" s="37"/>
       <c r="M167" s="37"/>
-    </row>
-    <row r="168" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N167" s="37"/>
+    </row>
+    <row r="168" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B168" s="9" t="s">
         <v>171</v>
       </c>
@@ -5839,11 +5949,11 @@
       <c r="G168" s="59"/>
       <c r="H168" s="37"/>
       <c r="I168" s="37"/>
-      <c r="K168" s="37"/>
       <c r="L168" s="37"/>
       <c r="M168" s="37"/>
-    </row>
-    <row r="169" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N168" s="37"/>
+    </row>
+    <row r="169" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B169" s="54"/>
       <c r="C169" s="54"/>
       <c r="D169" s="37"/>
@@ -5852,11 +5962,11 @@
       <c r="G169" s="59"/>
       <c r="H169" s="37"/>
       <c r="I169" s="37"/>
-      <c r="K169" s="37"/>
       <c r="L169" s="37"/>
       <c r="M169" s="37"/>
-    </row>
-    <row r="170" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N169" s="37"/>
+    </row>
+    <row r="170" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B170" s="55" t="s">
         <v>172</v>
       </c>
@@ -5867,11 +5977,11 @@
       <c r="G170" s="59"/>
       <c r="H170" s="37"/>
       <c r="I170" s="37"/>
-      <c r="K170" s="37"/>
       <c r="L170" s="37"/>
       <c r="M170" s="37"/>
-    </row>
-    <row r="171" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N170" s="37"/>
+    </row>
+    <row r="171" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B171" s="55" t="s">
         <v>173</v>
       </c>
@@ -5882,11 +5992,11 @@
       <c r="G171" s="59"/>
       <c r="H171" s="37"/>
       <c r="I171" s="37"/>
-      <c r="K171" s="37"/>
       <c r="L171" s="37"/>
       <c r="M171" s="37"/>
-    </row>
-    <row r="172" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N171" s="37"/>
+    </row>
+    <row r="172" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B172" s="29"/>
       <c r="C172" s="30"/>
       <c r="D172" s="37"/>
@@ -5895,11 +6005,11 @@
       <c r="G172" s="59"/>
       <c r="H172" s="37"/>
       <c r="I172" s="37"/>
-      <c r="K172" s="37"/>
       <c r="L172" s="37"/>
       <c r="M172" s="37"/>
-    </row>
-    <row r="173" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N172" s="37"/>
+    </row>
+    <row r="173" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B173" s="29" t="s">
         <v>174</v>
       </c>
@@ -5910,11 +6020,11 @@
       <c r="G173" s="59"/>
       <c r="H173" s="37"/>
       <c r="I173" s="37"/>
-      <c r="K173" s="37"/>
       <c r="L173" s="37"/>
       <c r="M173" s="37"/>
-    </row>
-    <row r="174" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N173" s="37"/>
+    </row>
+    <row r="174" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B174" s="29" t="s">
         <v>175</v>
       </c>
@@ -5925,11 +6035,11 @@
       <c r="G174" s="59"/>
       <c r="H174" s="37"/>
       <c r="I174" s="37"/>
-      <c r="K174" s="37"/>
       <c r="L174" s="37"/>
       <c r="M174" s="37"/>
-    </row>
-    <row r="175" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N174" s="37"/>
+    </row>
+    <row r="175" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B175" s="29"/>
       <c r="C175" s="30" t="s">
         <v>176</v>
@@ -5940,11 +6050,11 @@
       <c r="G175" s="59"/>
       <c r="H175" s="37"/>
       <c r="I175" s="37"/>
-      <c r="K175" s="37"/>
       <c r="L175" s="37"/>
       <c r="M175" s="37"/>
-    </row>
-    <row r="176" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="N175" s="37"/>
+    </row>
+    <row r="176" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B176" s="37"/>
       <c r="C176" s="37"/>
       <c r="D176" s="37"/>
@@ -5953,11 +6063,11 @@
       <c r="G176" s="61"/>
       <c r="H176" s="37"/>
       <c r="I176" s="37"/>
-      <c r="K176" s="37"/>
       <c r="L176" s="37"/>
       <c r="M176" s="37"/>
-    </row>
-    <row r="177" spans="2:13" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="N176" s="37"/>
+    </row>
+    <row r="177" spans="2:14" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B177" s="12" t="s">
         <v>114</v>
       </c>
@@ -5975,20 +6085,21 @@
         <v>177</v>
       </c>
       <c r="J177" s="60"/>
-      <c r="K177" s="37"/>
+      <c r="K177" s="60"/>
       <c r="L177" s="37"/>
       <c r="M177" s="37"/>
-    </row>
-    <row r="178" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N177" s="37"/>
+    </row>
+    <row r="178" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F178" s="18"/>
       <c r="I178" s="10">
         <v>1</v>
       </c>
-      <c r="K178" s="37"/>
       <c r="L178" s="37"/>
       <c r="M178" s="37"/>
-    </row>
-    <row r="179" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N178" s="37"/>
+    </row>
+    <row r="179" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B179" s="32" t="s">
         <v>178</v>
       </c>
@@ -6013,9 +6124,10 @@
         <f t="array" aca="1" ref="J179" ca="1">SUM(_xlfn.XLOOKUP(OFFSET(INDIRECT("Map!"&amp;I179),-2,-2,5,5),_nSym,_nVal,0))</f>
         <v>2320000</v>
       </c>
-      <c r="M179" s="37"/>
-    </row>
-    <row r="180" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="K179" s="60"/>
+      <c r="N179" s="37"/>
+    </row>
+    <row r="180" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F180" s="18"/>
       <c r="G180" s="33" t="s">
         <v>27</v>
@@ -6024,8 +6136,9 @@
         <f ca="1">J179</f>
         <v>2320000</v>
       </c>
-    </row>
-    <row r="181" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K180" s="134"/>
+    </row>
+    <row r="181" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B181" s="33">
         <v>71</v>
       </c>
@@ -6050,9 +6163,10 @@
         <f t="dataTable" ref="J181:J200" dt2D="0" dtr="0" r1="I178" ca="1"/>
         <v>2080000</v>
       </c>
-      <c r="M181" s="37"/>
-    </row>
-    <row r="182" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K181" s="137"/>
+      <c r="N181" s="37"/>
+    </row>
+    <row r="182" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B182" s="33">
         <v>72</v>
       </c>
@@ -6075,9 +6189,10 @@
       <c r="J182" s="137">
         <v>2510000</v>
       </c>
-      <c r="M182" s="37"/>
-    </row>
-    <row r="183" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K182" s="137"/>
+      <c r="N182" s="37"/>
+    </row>
+    <row r="183" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B183" s="33">
         <v>73</v>
       </c>
@@ -6100,9 +6215,10 @@
       <c r="J183" s="137">
         <v>2550000</v>
       </c>
-      <c r="M183" s="37"/>
-    </row>
-    <row r="184" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K183" s="137"/>
+      <c r="N183" s="37"/>
+    </row>
+    <row r="184" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B184" s="33">
         <v>74</v>
       </c>
@@ -6125,9 +6241,10 @@
       <c r="J184" s="137">
         <v>2250000</v>
       </c>
-      <c r="M184" s="37"/>
-    </row>
-    <row r="185" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K184" s="137"/>
+      <c r="N184" s="37"/>
+    </row>
+    <row r="185" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B185" s="33">
         <v>75</v>
       </c>
@@ -6150,9 +6267,10 @@
       <c r="J185" s="137">
         <v>2210000</v>
       </c>
-      <c r="M185" s="37"/>
-    </row>
-    <row r="186" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K185" s="137"/>
+      <c r="N185" s="37"/>
+    </row>
+    <row r="186" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B186" s="33">
         <v>76</v>
       </c>
@@ -6175,9 +6293,10 @@
       <c r="J186" s="137">
         <v>2140000</v>
       </c>
-      <c r="M186" s="37"/>
-    </row>
-    <row r="187" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K186" s="137"/>
+      <c r="N186" s="37"/>
+    </row>
+    <row r="187" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B187" s="33">
         <v>77</v>
       </c>
@@ -6200,9 +6319,10 @@
       <c r="J187" s="137">
         <v>2350000</v>
       </c>
-      <c r="M187" s="37"/>
-    </row>
-    <row r="188" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K187" s="137"/>
+      <c r="N187" s="37"/>
+    </row>
+    <row r="188" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B188" s="33">
         <v>78</v>
       </c>
@@ -6225,9 +6345,10 @@
       <c r="J188" s="137">
         <v>2310000</v>
       </c>
-      <c r="M188" s="37"/>
-    </row>
-    <row r="189" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K188" s="137"/>
+      <c r="N188" s="37"/>
+    </row>
+    <row r="189" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B189" s="33">
         <v>79</v>
       </c>
@@ -6250,9 +6371,10 @@
       <c r="J189" s="137">
         <v>2280000</v>
       </c>
-      <c r="M189" s="37"/>
-    </row>
-    <row r="190" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K189" s="137"/>
+      <c r="N189" s="37"/>
+    </row>
+    <row r="190" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B190" s="33">
         <v>80</v>
       </c>
@@ -6275,9 +6397,10 @@
       <c r="J190" s="137">
         <v>2060000</v>
       </c>
-      <c r="M190" s="37"/>
-    </row>
-    <row r="191" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K190" s="137"/>
+      <c r="N190" s="37"/>
+    </row>
+    <row r="191" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B191" s="33">
         <v>81</v>
       </c>
@@ -6300,9 +6423,10 @@
       <c r="J191" s="137">
         <v>2070000</v>
       </c>
-      <c r="M191" s="37"/>
-    </row>
-    <row r="192" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K191" s="137"/>
+      <c r="N191" s="37"/>
+    </row>
+    <row r="192" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B192" s="33">
         <v>82</v>
       </c>
@@ -6325,9 +6449,10 @@
       <c r="J192" s="137">
         <v>2140000</v>
       </c>
-      <c r="M192" s="37"/>
-    </row>
-    <row r="193" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K192" s="137"/>
+      <c r="N192" s="37"/>
+    </row>
+    <row r="193" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B193" s="33">
         <v>83</v>
       </c>
@@ -6350,9 +6475,10 @@
       <c r="J193" s="137">
         <v>2040000</v>
       </c>
-      <c r="M193" s="37"/>
-    </row>
-    <row r="194" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K193" s="137"/>
+      <c r="N193" s="37"/>
+    </row>
+    <row r="194" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B194" s="33">
         <v>84</v>
       </c>
@@ -6375,9 +6501,10 @@
       <c r="J194" s="137">
         <v>2040000</v>
       </c>
-      <c r="M194" s="37"/>
-    </row>
-    <row r="195" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K194" s="137"/>
+      <c r="N194" s="37"/>
+    </row>
+    <row r="195" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B195" s="33">
         <v>85</v>
       </c>
@@ -6400,9 +6527,10 @@
       <c r="J195" s="137">
         <v>2190000</v>
       </c>
-      <c r="M195" s="37"/>
-    </row>
-    <row r="196" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K195" s="137"/>
+      <c r="N195" s="37"/>
+    </row>
+    <row r="196" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B196" s="33">
         <v>86</v>
       </c>
@@ -6425,9 +6553,10 @@
       <c r="J196" s="137">
         <v>2150000</v>
       </c>
-      <c r="M196" s="37"/>
-    </row>
-    <row r="197" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K196" s="137"/>
+      <c r="N196" s="37"/>
+    </row>
+    <row r="197" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B197" s="33">
         <v>87</v>
       </c>
@@ -6450,9 +6579,10 @@
       <c r="J197" s="137">
         <v>2140000</v>
       </c>
-      <c r="M197" s="37"/>
-    </row>
-    <row r="198" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K197" s="137"/>
+      <c r="N197" s="37"/>
+    </row>
+    <row r="198" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B198" s="33">
         <v>88</v>
       </c>
@@ -6475,9 +6605,10 @@
       <c r="J198" s="137">
         <v>2330000</v>
       </c>
-      <c r="M198" s="37"/>
-    </row>
-    <row r="199" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K198" s="137"/>
+      <c r="N198" s="37"/>
+    </row>
+    <row r="199" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B199" s="33">
         <v>89</v>
       </c>
@@ -6500,9 +6631,10 @@
       <c r="J199" s="137">
         <v>2090000</v>
       </c>
-      <c r="M199" s="37"/>
-    </row>
-    <row r="200" spans="2:13" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="K199" s="137"/>
+      <c r="N199" s="37"/>
+    </row>
+    <row r="200" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B200" s="33">
         <v>90</v>
       </c>
@@ -6526,20 +6658,21 @@
       <c r="J200" s="137">
         <v>2370000</v>
       </c>
-      <c r="M200" s="37"/>
-    </row>
-    <row r="201" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="K200" s="137"/>
+      <c r="N200" s="37"/>
+    </row>
+    <row r="201" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B201" s="37"/>
       <c r="C201" s="37"/>
       <c r="D201" s="37"/>
       <c r="E201" s="37"/>
       <c r="F201" s="58"/>
       <c r="G201" s="37"/>
-      <c r="K201" s="37"/>
       <c r="L201" s="37"/>
       <c r="M201" s="37"/>
-    </row>
-    <row r="202" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="N201" s="37"/>
+    </row>
+    <row r="202" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B202" s="37"/>
       <c r="C202" s="37"/>
       <c r="D202" s="37"/>
@@ -6549,11 +6682,12 @@
       <c r="H202" s="37"/>
       <c r="I202" s="37"/>
       <c r="J202" s="60"/>
-      <c r="K202" s="37"/>
+      <c r="K202" s="60"/>
       <c r="L202" s="37"/>
       <c r="M202" s="37"/>
-    </row>
-    <row r="203" spans="2:13" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="N202" s="37"/>
+    </row>
+    <row r="203" spans="2:14" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B203" s="24" t="s">
         <v>179</v>
       </c>
@@ -6567,11 +6701,12 @@
       <c r="H203" s="37"/>
       <c r="I203" s="37"/>
       <c r="J203" s="60"/>
-      <c r="K203" s="37"/>
+      <c r="K203" s="60"/>
       <c r="L203" s="37"/>
       <c r="M203" s="37"/>
-    </row>
-    <row r="204" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N203" s="37"/>
+    </row>
+    <row r="204" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B204" s="29"/>
       <c r="C204" s="37"/>
       <c r="D204" s="37"/>
@@ -6581,11 +6716,12 @@
       <c r="H204" s="37"/>
       <c r="I204" s="37"/>
       <c r="J204" s="60"/>
-      <c r="K204" s="37"/>
+      <c r="K204" s="60"/>
       <c r="L204" s="37"/>
       <c r="M204" s="37"/>
-    </row>
-    <row r="205" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N204" s="37"/>
+    </row>
+    <row r="205" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B205" s="29" t="s">
         <v>181</v>
       </c>
@@ -6595,11 +6731,12 @@
       <c r="H205" s="37"/>
       <c r="I205" s="37"/>
       <c r="J205" s="60"/>
-      <c r="K205" s="37"/>
+      <c r="K205" s="60"/>
       <c r="L205" s="37"/>
       <c r="M205" s="37"/>
-    </row>
-    <row r="206" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N205" s="37"/>
+    </row>
+    <row r="206" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B206" s="29"/>
       <c r="C206" s="18"/>
       <c r="F206" s="18"/>
@@ -6607,11 +6744,12 @@
       <c r="H206" s="37"/>
       <c r="I206" s="37"/>
       <c r="J206" s="60"/>
-      <c r="K206" s="37"/>
+      <c r="K206" s="60"/>
       <c r="L206" s="37"/>
       <c r="M206" s="37"/>
-    </row>
-    <row r="207" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N206" s="37"/>
+    </row>
+    <row r="207" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B207" s="55" t="s">
         <v>182</v>
       </c>
@@ -6620,11 +6758,12 @@
       <c r="H207" s="37"/>
       <c r="I207" s="37"/>
       <c r="J207" s="60"/>
-      <c r="K207" s="37"/>
+      <c r="K207" s="60"/>
       <c r="L207" s="37"/>
       <c r="M207" s="37"/>
-    </row>
-    <row r="208" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N207" s="37"/>
+    </row>
+    <row r="208" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B208" s="55" t="s">
         <v>183</v>
       </c>
@@ -6636,8 +6775,9 @@
       <c r="K208" s="37"/>
       <c r="L208" s="37"/>
       <c r="M208" s="37"/>
-    </row>
-    <row r="209" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N208" s="37"/>
+    </row>
+    <row r="209" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B209" s="55"/>
       <c r="F209" s="18"/>
       <c r="G209" s="60"/>
@@ -6647,8 +6787,9 @@
       <c r="K209" s="37"/>
       <c r="L209" s="37"/>
       <c r="M209" s="37"/>
-    </row>
-    <row r="210" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N209" s="37"/>
+    </row>
+    <row r="210" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B210" s="29" t="s">
         <v>241</v>
       </c>
@@ -6660,8 +6801,9 @@
       <c r="K210" s="37"/>
       <c r="L210" s="37"/>
       <c r="M210" s="37"/>
-    </row>
-    <row r="211" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N210" s="37"/>
+    </row>
+    <row r="211" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B211" s="29" t="s">
         <v>184</v>
       </c>
@@ -6673,8 +6815,9 @@
       <c r="K211" s="37"/>
       <c r="L211" s="37"/>
       <c r="M211" s="37"/>
-    </row>
-    <row r="212" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N211" s="37"/>
+    </row>
+    <row r="212" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B212" s="29"/>
       <c r="C212" s="30" t="s">
         <v>185</v>
@@ -6684,11 +6827,12 @@
       <c r="H212" s="60"/>
       <c r="I212" s="37"/>
       <c r="J212" s="60"/>
-      <c r="K212" s="37"/>
+      <c r="K212" s="60"/>
       <c r="L212" s="37"/>
       <c r="M212" s="37"/>
-    </row>
-    <row r="213" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N212" s="37"/>
+    </row>
+    <row r="213" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B213" s="29"/>
       <c r="C213" s="30" t="s">
         <v>217</v>
@@ -6698,11 +6842,12 @@
       <c r="H213" s="60"/>
       <c r="I213" s="37"/>
       <c r="J213" s="60"/>
-      <c r="K213" s="37"/>
+      <c r="K213" s="60"/>
       <c r="L213" s="37"/>
       <c r="M213" s="37"/>
-    </row>
-    <row r="214" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="N213" s="37"/>
+    </row>
+    <row r="214" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B214" s="37"/>
       <c r="C214" s="37"/>
       <c r="D214" s="37"/>
@@ -6711,11 +6856,11 @@
       <c r="G214" s="61"/>
       <c r="H214" s="61"/>
       <c r="I214" s="37"/>
-      <c r="K214" s="37"/>
       <c r="L214" s="37"/>
       <c r="M214" s="37"/>
-    </row>
-    <row r="215" spans="2:14" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="N214" s="37"/>
+    </row>
+    <row r="215" spans="2:15" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B215" s="12" t="s">
         <v>114</v>
       </c>
@@ -6733,21 +6878,23 @@
         <v>186</v>
       </c>
       <c r="J215" s="60"/>
-      <c r="K215" s="37"/>
+      <c r="K215" s="60"/>
       <c r="L215" s="37"/>
       <c r="M215" s="37"/>
-    </row>
-    <row r="216" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N215" s="37"/>
+    </row>
+    <row r="216" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F216" s="18"/>
       <c r="H216" s="10">
         <v>3</v>
       </c>
       <c r="J216" s="60"/>
-      <c r="K216" s="37"/>
+      <c r="K216" s="60"/>
       <c r="L216" s="37"/>
       <c r="M216" s="37"/>
-    </row>
-    <row r="217" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N216" s="37"/>
+    </row>
+    <row r="217" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B217" s="32" t="s">
         <v>187</v>
       </c>
@@ -6784,16 +6931,17 @@
         <f t="array" aca="1" ref="J217" ca="1">INDIRECT(I217)</f>
         <v>5</v>
       </c>
-      <c r="K217" s="37" cm="1">
-        <f t="array" aca="1" ref="K217:K249" ca="1">IFERROR(_xlfn.XLOOKUP(J217:J249,_nSym,_nVal,0)+0,0)</f>
+      <c r="K217" s="60"/>
+      <c r="L217" s="37" cm="1">
+        <f t="array" aca="1" ref="L217:L249" ca="1">IFERROR(_xlfn.XLOOKUP(J217:J249,_nSym,_nVal,0)+0,0)</f>
         <v>0</v>
       </c>
-      <c r="L217" s="37">
-        <f ca="1">SUM(_xlfn.ANCHORARRAY(K217))</f>
+      <c r="M217" s="37">
+        <f ca="1">SUM(_xlfn.ANCHORARRAY(L217))</f>
         <v>1010000</v>
       </c>
     </row>
-    <row r="218" spans="2:14" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="218" spans="2:15" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F218" s="18"/>
       <c r="G218" s="18" t="s">
         <v>38</v>
@@ -6806,13 +6954,14 @@
         <f t="array" aca="1" ref="J218" ca="1">INDIRECT(I218)</f>
         <v>🪨</v>
       </c>
-      <c r="K218" s="37">
+      <c r="K218" s="60"/>
+      <c r="L218" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L218" s="56"/>
-    </row>
-    <row r="219" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="M218" s="56"/>
+    </row>
+    <row r="219" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B219" s="33">
         <v>91</v>
       </c>
@@ -6837,17 +6986,18 @@
         <f t="array" aca="1" ref="J219" ca="1">INDIRECT(I219)</f>
         <v>◆</v>
       </c>
-      <c r="K219" s="37">
+      <c r="K219" s="60"/>
+      <c r="L219" s="37">
         <f ca="1"/>
         <v>250000</v>
       </c>
-      <c r="L219" s="56"/>
-      <c r="N219" s="10">
-        <f ca="1">L217</f>
+      <c r="M219" s="56"/>
+      <c r="O219" s="10">
+        <f ca="1">M217</f>
         <v>1010000</v>
       </c>
     </row>
-    <row r="220" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="220" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B220" s="33">
         <v>92</v>
       </c>
@@ -6872,21 +7022,22 @@
         <f t="array" aca="1" ref="J220" ca="1">INDIRECT(I220)</f>
         <v>◆</v>
       </c>
-      <c r="K220" s="37">
+      <c r="K220" s="60"/>
+      <c r="L220" s="37">
         <f ca="1"/>
         <v>250000</v>
       </c>
-      <c r="L220" s="56"/>
-      <c r="M220" s="56" cm="1">
-        <f t="array" ref="M220:M239">_xlfn.SEQUENCE(20,1,3,)</f>
+      <c r="M220" s="56"/>
+      <c r="N220" s="56" cm="1">
+        <f t="array" ref="N220:N239">_xlfn.SEQUENCE(20,1,3,)</f>
         <v>3</v>
       </c>
-      <c r="N220" s="10">
-        <f t="dataTable" ref="N220:N239" dt2D="0" dtr="0" r1="H216" ca="1"/>
+      <c r="O220" s="10">
+        <f t="dataTable" ref="O220:O239" dt2D="0" dtr="0" r1="H216" ca="1"/>
         <v>1010000</v>
       </c>
     </row>
-    <row r="221" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="221" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B221" s="33">
         <v>93</v>
       </c>
@@ -6911,19 +7062,20 @@
         <f t="array" aca="1" ref="J221" ca="1">INDIRECT(I221)</f>
         <v>✵</v>
       </c>
-      <c r="K221" s="37">
+      <c r="K221" s="60"/>
+      <c r="L221" s="37">
         <f ca="1"/>
         <v>200000</v>
       </c>
-      <c r="L221" s="56"/>
-      <c r="M221" s="56">
+      <c r="M221" s="56"/>
+      <c r="N221" s="56">
         <v>4</v>
       </c>
-      <c r="N221" s="10">
+      <c r="O221" s="10">
         <v>680000</v>
       </c>
     </row>
-    <row r="222" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="222" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B222" s="33">
         <v>94</v>
       </c>
@@ -6948,19 +7100,20 @@
         <f t="array" aca="1" ref="J222" ca="1">INDIRECT(I222)</f>
         <v/>
       </c>
-      <c r="K222" s="37">
+      <c r="K222" s="60"/>
+      <c r="L222" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L222" s="56"/>
-      <c r="M222" s="56">
+      <c r="M222" s="56"/>
+      <c r="N222" s="56">
         <v>5</v>
       </c>
-      <c r="N222" s="10">
+      <c r="O222" s="10">
         <v>1250000</v>
       </c>
     </row>
-    <row r="223" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="223" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B223" s="33">
         <v>95</v>
       </c>
@@ -6985,19 +7138,20 @@
         <f t="array" aca="1" ref="J223" ca="1">INDIRECT(I223)</f>
         <v/>
       </c>
-      <c r="K223" s="37">
+      <c r="K223" s="60"/>
+      <c r="L223" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L223" s="56"/>
-      <c r="M223" s="56">
+      <c r="M223" s="56"/>
+      <c r="N223" s="56">
         <v>6</v>
       </c>
-      <c r="N223" s="10">
+      <c r="O223" s="10">
         <v>800000</v>
       </c>
     </row>
-    <row r="224" spans="2:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="224" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B224" s="33">
         <v>96</v>
       </c>
@@ -7022,19 +7176,20 @@
         <f t="array" aca="1" ref="J224" ca="1">INDIRECT(I224)</f>
         <v/>
       </c>
-      <c r="K224" s="37">
+      <c r="K224" s="60"/>
+      <c r="L224" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L224" s="56"/>
-      <c r="M224" s="56">
+      <c r="M224" s="56"/>
+      <c r="N224" s="56">
         <v>7</v>
       </c>
-      <c r="N224" s="10">
+      <c r="O224" s="10">
         <v>770000</v>
       </c>
     </row>
-    <row r="225" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="225" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B225" s="33">
         <v>97</v>
       </c>
@@ -7059,19 +7214,20 @@
         <f t="array" aca="1" ref="J225" ca="1">INDIRECT(I225)</f>
         <v/>
       </c>
-      <c r="K225" s="37">
+      <c r="K225" s="60"/>
+      <c r="L225" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L225" s="56"/>
-      <c r="M225" s="56">
+      <c r="M225" s="56"/>
+      <c r="N225" s="56">
         <v>8</v>
       </c>
-      <c r="N225" s="10">
+      <c r="O225" s="10">
         <v>1530000</v>
       </c>
     </row>
-    <row r="226" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="226" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B226" s="33">
         <v>98</v>
       </c>
@@ -7096,19 +7252,20 @@
         <f t="array" aca="1" ref="J226" ca="1">INDIRECT(I226)</f>
         <v>❀</v>
       </c>
-      <c r="K226" s="37">
+      <c r="K226" s="60"/>
+      <c r="L226" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L226" s="56"/>
-      <c r="M226" s="56">
+      <c r="M226" s="56"/>
+      <c r="N226" s="56">
         <v>9</v>
       </c>
-      <c r="N226" s="10">
+      <c r="O226" s="10">
         <v>930000</v>
       </c>
     </row>
-    <row r="227" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="227" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B227" s="33">
         <v>99</v>
       </c>
@@ -7133,19 +7290,20 @@
         <f t="array" aca="1" ref="J227" ca="1">INDIRECT(I227)</f>
         <v/>
       </c>
-      <c r="K227" s="37">
+      <c r="K227" s="60"/>
+      <c r="L227" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L227" s="56"/>
-      <c r="M227" s="56">
+      <c r="M227" s="56"/>
+      <c r="N227" s="56">
         <v>10</v>
       </c>
-      <c r="N227" s="10">
+      <c r="O227" s="10">
         <v>800000</v>
       </c>
     </row>
-    <row r="228" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="228" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B228" s="33">
         <v>100</v>
       </c>
@@ -7170,19 +7328,20 @@
         <f t="array" aca="1" ref="J228" ca="1">INDIRECT(I228)</f>
         <v/>
       </c>
-      <c r="K228" s="37">
+      <c r="K228" s="60"/>
+      <c r="L228" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L228" s="56"/>
-      <c r="M228" s="56">
+      <c r="M228" s="56"/>
+      <c r="N228" s="56">
         <v>11</v>
       </c>
-      <c r="N228" s="10">
+      <c r="O228" s="10">
         <v>850000</v>
       </c>
     </row>
-    <row r="229" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="229" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B229" s="33">
         <v>101</v>
       </c>
@@ -7207,19 +7366,20 @@
         <f t="array" aca="1" ref="J229" ca="1">INDIRECT(I229)</f>
         <v/>
       </c>
-      <c r="K229" s="37">
+      <c r="K229" s="60"/>
+      <c r="L229" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L229" s="56"/>
-      <c r="M229" s="56">
+      <c r="M229" s="56"/>
+      <c r="N229" s="56">
         <v>12</v>
       </c>
-      <c r="N229" s="10">
+      <c r="O229" s="10">
         <v>680000</v>
       </c>
     </row>
-    <row r="230" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="230" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B230" s="33">
         <v>102</v>
       </c>
@@ -7244,19 +7404,20 @@
         <f t="array" aca="1" ref="J230" ca="1">INDIRECT(I230)</f>
         <v>✵</v>
       </c>
-      <c r="K230" s="37">
+      <c r="K230" s="60"/>
+      <c r="L230" s="37">
         <f ca="1"/>
         <v>200000</v>
       </c>
-      <c r="L230" s="56"/>
-      <c r="M230" s="56">
+      <c r="M230" s="56"/>
+      <c r="N230" s="56">
         <v>13</v>
       </c>
-      <c r="N230" s="10">
+      <c r="O230" s="10">
         <v>1430000</v>
       </c>
     </row>
-    <row r="231" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="231" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B231" s="33">
         <v>103</v>
       </c>
@@ -7281,19 +7442,20 @@
         <f t="array" aca="1" ref="J231" ca="1">INDIRECT(I231)</f>
         <v>✶</v>
       </c>
-      <c r="K231" s="37">
+      <c r="K231" s="60"/>
+      <c r="L231" s="37">
         <f ca="1"/>
         <v>40000</v>
       </c>
-      <c r="L231" s="56"/>
-      <c r="M231" s="56">
+      <c r="M231" s="56"/>
+      <c r="N231" s="56">
         <v>14</v>
       </c>
-      <c r="N231" s="10">
+      <c r="O231" s="10">
         <v>320000</v>
       </c>
     </row>
-    <row r="232" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="232" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B232" s="33">
         <v>104</v>
       </c>
@@ -7318,19 +7480,20 @@
         <f t="array" aca="1" ref="J232" ca="1">INDIRECT(I232)</f>
         <v>✶</v>
       </c>
-      <c r="K232" s="37">
+      <c r="K232" s="60"/>
+      <c r="L232" s="37">
         <f ca="1"/>
         <v>40000</v>
       </c>
-      <c r="L232" s="56"/>
-      <c r="M232" s="56">
+      <c r="M232" s="56"/>
+      <c r="N232" s="56">
         <v>15</v>
       </c>
-      <c r="N232" s="10">
+      <c r="O232" s="10">
         <v>1250000</v>
       </c>
     </row>
-    <row r="233" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="233" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B233" s="33">
         <v>105</v>
       </c>
@@ -7355,19 +7518,20 @@
         <f t="array" aca="1" ref="J233" ca="1">INDIRECT(I233)</f>
         <v>❂</v>
       </c>
-      <c r="K233" s="37">
+      <c r="K233" s="60"/>
+      <c r="L233" s="37">
         <f ca="1"/>
         <v>30000</v>
       </c>
-      <c r="L233" s="56"/>
-      <c r="M233" s="56">
+      <c r="M233" s="56"/>
+      <c r="N233" s="56">
         <v>16</v>
       </c>
-      <c r="N233" s="10">
+      <c r="O233" s="10">
         <v>420000</v>
       </c>
     </row>
-    <row r="234" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="234" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B234" s="33">
         <v>106</v>
       </c>
@@ -7392,19 +7556,20 @@
         <f t="array" aca="1" ref="J234" ca="1">INDIRECT(I234)</f>
         <v>0</v>
       </c>
-      <c r="K234" s="37">
+      <c r="K234" s="60"/>
+      <c r="L234" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L234" s="56"/>
-      <c r="M234" s="56">
+      <c r="M234" s="56"/>
+      <c r="N234" s="56">
         <v>17</v>
       </c>
-      <c r="N234" s="10">
+      <c r="O234" s="10">
         <v>300000</v>
       </c>
     </row>
-    <row r="235" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="235" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B235" s="33">
         <v>107</v>
       </c>
@@ -7429,19 +7594,20 @@
         <f t="array" aca="1" ref="J235" ca="1">INDIRECT(I235)</f>
         <v>0</v>
       </c>
-      <c r="K235" s="56">
+      <c r="K235" s="60"/>
+      <c r="L235" s="56">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L235" s="56"/>
-      <c r="M235" s="56">
+      <c r="M235" s="56"/>
+      <c r="N235" s="56">
         <v>18</v>
       </c>
-      <c r="N235" s="10">
+      <c r="O235" s="10">
         <v>300000</v>
       </c>
     </row>
-    <row r="236" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="236" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B236" s="33">
         <v>108</v>
       </c>
@@ -7466,19 +7632,20 @@
         <f t="array" aca="1" ref="J236" ca="1">INDIRECT(I236)</f>
         <v>0</v>
       </c>
-      <c r="K236" s="56">
+      <c r="K236" s="60"/>
+      <c r="L236" s="56">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L236" s="56"/>
-      <c r="M236" s="56">
+      <c r="M236" s="56"/>
+      <c r="N236" s="56">
         <v>19</v>
       </c>
-      <c r="N236" s="10">
+      <c r="O236" s="10">
         <v>310000</v>
       </c>
     </row>
-    <row r="237" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="237" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B237" s="33">
         <v>109</v>
       </c>
@@ -7503,19 +7670,20 @@
         <f t="array" aca="1" ref="J237" ca="1">INDIRECT(I237)</f>
         <v>0</v>
       </c>
-      <c r="K237" s="56">
+      <c r="K237" s="60"/>
+      <c r="L237" s="56">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L237" s="56"/>
-      <c r="M237" s="56">
+      <c r="M237" s="56"/>
+      <c r="N237" s="56">
         <v>20</v>
       </c>
-      <c r="N237" s="10">
+      <c r="O237" s="10">
         <v>500000</v>
       </c>
     </row>
-    <row r="238" spans="1:14" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="238" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B238" s="33">
         <v>110</v>
       </c>
@@ -7540,19 +7708,20 @@
         <f t="array" aca="1" ref="J238" ca="1">INDIRECT(I238)</f>
         <v>0</v>
       </c>
-      <c r="K238" s="56">
+      <c r="K238" s="60"/>
+      <c r="L238" s="56">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L238" s="56"/>
-      <c r="M238" s="56">
+      <c r="M238" s="56"/>
+      <c r="N238" s="56">
         <v>21</v>
       </c>
-      <c r="N238" s="10">
+      <c r="O238" s="10">
         <v>1530000</v>
       </c>
     </row>
-    <row r="239" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="239" spans="1:15" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B239" s="18"/>
       <c r="C239" s="18"/>
       <c r="D239" s="18"/>
@@ -7568,19 +7737,20 @@
         <f t="array" aca="1" ref="J239" ca="1">INDIRECT(I239)</f>
         <v>0</v>
       </c>
-      <c r="K239" s="61">
+      <c r="K239" s="60"/>
+      <c r="L239" s="61">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L239" s="61"/>
-      <c r="M239" s="61">
+      <c r="M239" s="61"/>
+      <c r="N239" s="61">
         <v>22</v>
       </c>
-      <c r="N239" s="10">
+      <c r="O239" s="10">
         <v>760000</v>
       </c>
     </row>
-    <row r="240" spans="1:14" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="240" spans="1:15" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7597,13 +7767,14 @@
         <f t="array" aca="1" ref="J240" ca="1">INDIRECT(I240)</f>
         <v>0</v>
       </c>
-      <c r="K240" s="10">
+      <c r="K240" s="60"/>
+      <c r="L240" s="10">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M240" s="61"/>
-    </row>
-    <row r="241" spans="2:17" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="N240" s="61"/>
+    </row>
+    <row r="241" spans="2:19" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B241" s="24" t="s">
         <v>188</v>
       </c>
@@ -7623,12 +7794,13 @@
         <f t="array" aca="1" ref="J241" ca="1">INDIRECT(I241)</f>
         <v>0</v>
       </c>
-      <c r="K241" s="10">
+      <c r="K241" s="60"/>
+      <c r="L241" s="10">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="242" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B242" s="29"/>
       <c r="C242" s="37"/>
       <c r="D242" s="37"/>
@@ -7643,12 +7815,13 @@
         <f t="array" aca="1" ref="J242" ca="1">INDIRECT(I242)</f>
         <v>0</v>
       </c>
-      <c r="K242" s="10">
+      <c r="K242" s="60"/>
+      <c r="L242" s="10">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="243" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B243" s="29" t="s">
         <v>190</v>
       </c>
@@ -7666,12 +7839,13 @@
         <f t="array" aca="1" ref="J243" ca="1">INDIRECT(I243)</f>
         <v>0</v>
       </c>
-      <c r="K243" s="10">
+      <c r="K243" s="60"/>
+      <c r="L243" s="10">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="244" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B244" s="29"/>
       <c r="D244" s="58"/>
       <c r="E244" s="58"/>
@@ -7683,12 +7857,13 @@
         <f t="array" aca="1" ref="J244" ca="1">INDIRECT(I244)</f>
         <v>#REF!</v>
       </c>
-      <c r="K244" s="10">
+      <c r="K244" s="60"/>
+      <c r="L244" s="10">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="245" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B245" s="28" t="s">
         <v>191</v>
       </c>
@@ -7700,14 +7875,15 @@
         <f t="array" aca="1" ref="J245" ca="1">INDIRECT(I245)</f>
         <v>#REF!</v>
       </c>
-      <c r="K245" s="9">
+      <c r="K245" s="60"/>
+      <c r="L245" s="9">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L245" s="9"/>
       <c r="M245" s="9"/>
-    </row>
-    <row r="246" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N245" s="9"/>
+    </row>
+    <row r="246" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B246" s="65" t="s">
         <v>192</v>
       </c>
@@ -7719,14 +7895,15 @@
         <f t="array" aca="1" ref="J246" ca="1">INDIRECT(I246)</f>
         <v>#REF!</v>
       </c>
-      <c r="K246" s="37">
+      <c r="K246" s="60"/>
+      <c r="L246" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L246" s="37"/>
       <c r="M246" s="37"/>
-    </row>
-    <row r="247" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N246" s="37"/>
+    </row>
+    <row r="247" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B247" s="65" t="s">
         <v>193</v>
       </c>
@@ -7738,14 +7915,15 @@
         <f t="array" aca="1" ref="J247" ca="1">INDIRECT(I247)</f>
         <v>#REF!</v>
       </c>
-      <c r="K247" s="37">
+      <c r="K247" s="60"/>
+      <c r="L247" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L247" s="37"/>
       <c r="M247" s="37"/>
-    </row>
-    <row r="248" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N247" s="37"/>
+    </row>
+    <row r="248" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B248" s="66"/>
       <c r="F248" s="18"/>
       <c r="G248" s="60"/>
@@ -7755,14 +7933,15 @@
         <f t="array" aca="1" ref="J248" ca="1">INDIRECT(I248)</f>
         <v>#REF!</v>
       </c>
-      <c r="K248" s="37">
+      <c r="K248" s="60"/>
+      <c r="L248" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L248" s="37"/>
       <c r="M248" s="37"/>
-    </row>
-    <row r="249" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N248" s="37"/>
+    </row>
+    <row r="249" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B249" s="31" t="s">
         <v>194</v>
       </c>
@@ -7774,14 +7953,15 @@
         <f t="array" aca="1" ref="J249" ca="1">INDIRECT(I249)</f>
         <v>#REF!</v>
       </c>
-      <c r="K249" s="37">
+      <c r="K249" s="60"/>
+      <c r="L249" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="L249" s="37"/>
       <c r="M249" s="37"/>
-    </row>
-    <row r="250" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N249" s="37"/>
+    </row>
+    <row r="250" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B250" s="29" t="s">
         <v>195</v>
       </c>
@@ -7793,8 +7973,9 @@
       <c r="K250" s="37"/>
       <c r="L250" s="37"/>
       <c r="M250" s="37"/>
-    </row>
-    <row r="251" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N250" s="37"/>
+    </row>
+    <row r="251" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B251" s="29"/>
       <c r="C251" s="30" t="s">
         <v>196</v>
@@ -7807,8 +7988,9 @@
       <c r="K251" s="37"/>
       <c r="L251" s="37"/>
       <c r="M251" s="37"/>
-    </row>
-    <row r="252" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="N251" s="37"/>
+    </row>
+    <row r="252" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B252" s="29"/>
       <c r="C252" s="30" t="s">
         <v>197</v>
@@ -7821,8 +8003,9 @@
       <c r="K252" s="37"/>
       <c r="L252" s="37"/>
       <c r="M252" s="37"/>
-    </row>
-    <row r="253" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="N252" s="37"/>
+    </row>
+    <row r="253" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B253" s="9"/>
       <c r="C253" s="37"/>
       <c r="D253" s="37"/>
@@ -7835,8 +8018,9 @@
       <c r="K253" s="37"/>
       <c r="L253" s="37"/>
       <c r="M253" s="37"/>
-    </row>
-    <row r="254" spans="2:17" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="N253" s="37"/>
+    </row>
+    <row r="254" spans="2:19" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B254" s="12" t="s">
         <v>114</v>
       </c>
@@ -7857,59 +8041,69 @@
         <v>199</v>
       </c>
       <c r="J254" s="60"/>
-      <c r="K254" s="37" t="s">
+      <c r="K254" s="60"/>
+      <c r="L254" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="L254" s="37" t="s">
+      <c r="M254" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="M254" s="37" t="s">
+      <c r="N254" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="N254" s="10" t="s">
+      <c r="O254" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="P254" s="10">
-        <f ca="1">SUM(P255:P265)</f>
+      <c r="Q254" s="10">
+        <f ca="1">SUM(Q255:Q265)</f>
         <v>1210000</v>
       </c>
-    </row>
-    <row r="255" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="S254" s="10">
+        <f>SUM(S255:S264)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F255" s="18"/>
       <c r="I255" s="10">
         <v>3</v>
       </c>
       <c r="J255" s="60"/>
-      <c r="K255" s="10" cm="1">
-        <f t="array" aca="1" ref="K255" ca="1">ROW(INDIRECT(I256))</f>
+      <c r="K255" s="60"/>
+      <c r="L255" s="10" cm="1">
+        <f t="array" aca="1" ref="L255" ca="1">ROW(INDIRECT(I256))</f>
         <v>12</v>
       </c>
-      <c r="L255" s="10" cm="1">
-        <f t="array" aca="1" ref="L255" ca="1">COLUMN(INDIRECT(I256))</f>
+      <c r="M255" s="10" cm="1">
+        <f t="array" aca="1" ref="M255" ca="1">COLUMN(INDIRECT(I256))</f>
         <v>12</v>
       </c>
-      <c r="M255" s="37">
-        <f ca="1">K255</f>
-        <v>12</v>
-      </c>
-      <c r="N255" s="10">
+      <c r="N255" s="37">
         <f ca="1">L255</f>
         <v>12</v>
       </c>
-      <c r="O255" s="10" t="str" cm="1">
-        <f t="array" aca="1" ref="O255" ca="1">INDIRECT("Map!"&amp;ADDRESS(M255,N255,4))</f>
+      <c r="O255" s="10">
+        <f ca="1">M255</f>
+        <v>12</v>
+      </c>
+      <c r="P255" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="P255" ca="1">INDIRECT("Map!"&amp;ADDRESS(N255,O255,4))</f>
         <v>❂</v>
       </c>
-      <c r="P255" s="10">
-        <f ca="1">_xlfn.XLOOKUP(O255,_nSym,_nVal,0)</f>
+      <c r="Q255" s="10">
+        <f t="shared" ref="Q255:Q265" ca="1" si="0">_xlfn.XLOOKUP(P255,_nSym,_nVal,0)</f>
         <v>30000</v>
       </c>
-      <c r="Q255" s="10" t="str">
-        <f ca="1">ADDRESS(M255,N255)</f>
+      <c r="R255" s="10" t="str">
+        <f ca="1">ADDRESS(N255,O255)</f>
         <v>$L$12</v>
       </c>
-    </row>
-    <row r="256" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="S255" s="10">
+        <f>_xlfn.XLOOKUP(J256,$J$270:$J$277,$K$270:$K$277)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B256" s="32" t="s">
         <v>200</v>
       </c>
@@ -7937,36 +8131,41 @@
         <f t="array" ref="J256:J265">MID(INDEX(H256:H277,I255),_xlfn.SEQUENCE(10),1)</f>
         <v>↗</v>
       </c>
-      <c r="K256" s="10">
-        <f>_xlfn.XLOOKUP($J256,$J$270:$J$277,K$270:K$277)</f>
-        <v>-1</v>
-      </c>
+      <c r="K256" s="60"/>
       <c r="L256" s="10">
         <f>_xlfn.XLOOKUP($J256,$J$270:$J$277,L$270:L$277)</f>
-        <v>1</v>
-      </c>
-      <c r="M256" s="37">
-        <f ca="1">K256+M255</f>
+        <v>-1</v>
+      </c>
+      <c r="M256" s="10">
+        <f>_xlfn.XLOOKUP($J256,$J$270:$J$277,M$270:M$277)</f>
+        <v>1</v>
+      </c>
+      <c r="N256" s="37">
+        <f ca="1">L256+N255</f>
         <v>11</v>
       </c>
-      <c r="N256" s="10">
-        <f ca="1">N255+L256</f>
+      <c r="O256" s="10">
+        <f ca="1">O255+M256</f>
         <v>13</v>
       </c>
-      <c r="O256" s="10" t="str" cm="1">
-        <f t="array" aca="1" ref="O256" ca="1">INDIRECT("Map!"&amp;ADDRESS(M256,N256,4))</f>
+      <c r="P256" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="P256" ca="1">INDIRECT("Map!"&amp;ADDRESS(N256,O256,4))</f>
         <v/>
       </c>
-      <c r="P256" s="10">
-        <f ca="1">_xlfn.XLOOKUP(O256,_nSym,_nVal,0)</f>
+      <c r="Q256" s="10">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q256" s="10" t="str">
-        <f t="shared" ref="Q256:Q265" ca="1" si="0">ADDRESS(M256,N256)</f>
+      <c r="R256" s="10" t="str">
+        <f t="shared" ref="R256:R265" ca="1" si="1">ADDRESS(N256,O256)</f>
         <v>$M$11</v>
       </c>
-    </row>
-    <row r="257" spans="2:17" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="S256" s="10">
+        <f t="shared" ref="S256:S264" si="2">_xlfn.XLOOKUP(J257,$J$270:$J$277,$K$270:$K$277)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="2:19" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="F257" s="18"/>
       <c r="G257" s="39" t="s">
         <v>67</v>
@@ -7977,36 +8176,41 @@
       <c r="J257" s="60" t="str">
         <v>↘</v>
       </c>
-      <c r="K257" s="10">
-        <f t="shared" ref="K257:K265" si="1">_xlfn.XLOOKUP($J257,$J$270:$J$277,K$270:K$277)</f>
-        <v>1</v>
-      </c>
+      <c r="K257" s="60"/>
       <c r="L257" s="10">
-        <f t="shared" ref="L257:L265" si="2">_xlfn.XLOOKUP($J257,$J$270:$J$277,L$270:L$277)</f>
-        <v>1</v>
-      </c>
-      <c r="M257" s="37">
-        <f t="shared" ref="M257:M265" ca="1" si="3">K257+M256</f>
+        <f t="shared" ref="L257:L265" si="3">_xlfn.XLOOKUP($J257,$J$270:$J$277,L$270:L$277)</f>
+        <v>1</v>
+      </c>
+      <c r="M257" s="10">
+        <f t="shared" ref="M257:M265" si="4">_xlfn.XLOOKUP($J257,$J$270:$J$277,M$270:M$277)</f>
+        <v>1</v>
+      </c>
+      <c r="N257" s="37">
+        <f t="shared" ref="N257:N265" ca="1" si="5">L257+N256</f>
         <v>12</v>
       </c>
-      <c r="N257" s="10">
-        <f t="shared" ref="N257:N265" ca="1" si="4">N256+L257</f>
+      <c r="O257" s="10">
+        <f t="shared" ref="O257:O265" ca="1" si="6">O256+M257</f>
         <v>14</v>
       </c>
-      <c r="O257" s="10" t="str" cm="1">
-        <f t="array" aca="1" ref="O257" ca="1">INDIRECT("Map!"&amp;ADDRESS(M257,N257,4))</f>
+      <c r="P257" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="P257" ca="1">INDIRECT("Map!"&amp;ADDRESS(N257,O257,4))</f>
         <v>✧</v>
       </c>
-      <c r="P257" s="10">
-        <f ca="1">_xlfn.XLOOKUP(O257,_nSym,_nVal,0)</f>
+      <c r="Q257" s="10">
+        <f t="shared" ca="1" si="0"/>
         <v>300000</v>
       </c>
-      <c r="Q257" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="R257" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>$N$12</v>
       </c>
-    </row>
-    <row r="258" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="S257" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B258" s="33">
         <v>111</v>
       </c>
@@ -8029,36 +8233,41 @@
       <c r="J258" s="60" t="str">
         <v>↑</v>
       </c>
-      <c r="K258" s="10">
-        <f t="shared" si="1"/>
+      <c r="K258" s="60"/>
+      <c r="L258" s="10">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="L258" s="10">
+      <c r="M258" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N258" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="O258" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="P258" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="P258" ca="1">INDIRECT("Map!"&amp;ADDRESS(N258,O258,4))</f>
+        <v>◆</v>
+      </c>
+      <c r="Q258" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="R258" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>$N$11</v>
+      </c>
+      <c r="S258" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M258" s="37">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="N258" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O258" s="10" t="str" cm="1">
-        <f t="array" aca="1" ref="O258" ca="1">INDIRECT("Map!"&amp;ADDRESS(M258,N258,4))</f>
-        <v>◆</v>
-      </c>
-      <c r="P258" s="10">
-        <f ca="1">_xlfn.XLOOKUP(O258,_nSym,_nVal,0)</f>
-        <v>250000</v>
-      </c>
-      <c r="Q258" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>$N$11</v>
-      </c>
-    </row>
-    <row r="259" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B259" s="33">
         <v>112</v>
       </c>
@@ -8081,36 +8290,41 @@
       <c r="J259" s="60" t="str">
         <v>↑</v>
       </c>
-      <c r="K259" s="10">
-        <f t="shared" si="1"/>
+      <c r="K259" s="60"/>
+      <c r="L259" s="10">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="L259" s="10">
+      <c r="M259" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N259" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O259" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="P259" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="P259" ca="1">INDIRECT("Map!"&amp;ADDRESS(N259,O259,4))</f>
+        <v/>
+      </c>
+      <c r="Q259" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R259" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>$N$10</v>
+      </c>
+      <c r="S259" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M259" s="37">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="N259" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="O259" s="10" t="str" cm="1">
-        <f t="array" aca="1" ref="O259" ca="1">INDIRECT("Map!"&amp;ADDRESS(M259,N259,4))</f>
-        <v/>
-      </c>
-      <c r="P259" s="10">
-        <f ca="1">_xlfn.XLOOKUP(O259,_nSym,_nVal,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q259" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>$N$10</v>
-      </c>
-    </row>
-    <row r="260" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B260" s="33">
         <v>113</v>
       </c>
@@ -8133,36 +8347,41 @@
       <c r="J260" s="60" t="str">
         <v>→</v>
       </c>
-      <c r="K260" s="10">
-        <f t="shared" si="1"/>
+      <c r="K260" s="60"/>
+      <c r="L260" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L260" s="10">
+      <c r="M260" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N260" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O260" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="P260" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="P260" ca="1">INDIRECT("Map!"&amp;ADDRESS(N260,O260,4))</f>
+        <v>✱</v>
+      </c>
+      <c r="Q260" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="R260" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>$O$10</v>
+      </c>
+      <c r="S260" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M260" s="37">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="N260" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="O260" s="10" t="str" cm="1">
-        <f t="array" aca="1" ref="O260" ca="1">INDIRECT("Map!"&amp;ADDRESS(M260,N260,4))</f>
-        <v>✱</v>
-      </c>
-      <c r="P260" s="10">
-        <f ca="1">_xlfn.XLOOKUP(O260,_nSym,_nVal,0)</f>
-        <v>180000</v>
-      </c>
-      <c r="Q260" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>$O$10</v>
-      </c>
-    </row>
-    <row r="261" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+    </row>
+    <row r="261" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B261" s="33">
         <v>114</v>
       </c>
@@ -8185,36 +8404,41 @@
       <c r="J261" s="60" t="str">
         <v>→</v>
       </c>
-      <c r="K261" s="10">
-        <f t="shared" si="1"/>
+      <c r="K261" s="60"/>
+      <c r="L261" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L261" s="10">
+      <c r="M261" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N261" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O261" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="P261" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="P261" ca="1">INDIRECT("Map!"&amp;ADDRESS(N261,O261,4))</f>
+        <v/>
+      </c>
+      <c r="Q261" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R261" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>$P$10</v>
+      </c>
+      <c r="S261" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M261" s="37">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="N261" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="O261" s="10" t="str" cm="1">
-        <f t="array" aca="1" ref="O261" ca="1">INDIRECT("Map!"&amp;ADDRESS(M261,N261,4))</f>
-        <v/>
-      </c>
-      <c r="P261" s="10">
-        <f ca="1">_xlfn.XLOOKUP(O261,_nSym,_nVal,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q261" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>$P$10</v>
-      </c>
-    </row>
-    <row r="262" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B262" s="33">
         <v>115</v>
       </c>
@@ -8237,36 +8461,41 @@
       <c r="J262" s="60" t="str">
         <v>↗</v>
       </c>
-      <c r="K262" s="10">
-        <f t="shared" si="1"/>
+      <c r="K262" s="60"/>
+      <c r="L262" s="10">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="L262" s="10">
+      <c r="M262" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N262" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="O262" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="P262" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="P262" ca="1">INDIRECT("Map!"&amp;ADDRESS(N262,O262,4))</f>
+        <v>✵</v>
+      </c>
+      <c r="Q262" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="R262" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>$Q$9</v>
+      </c>
+      <c r="S262" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M262" s="37">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N262" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="O262" s="10" t="str" cm="1">
-        <f t="array" aca="1" ref="O262" ca="1">INDIRECT("Map!"&amp;ADDRESS(M262,N262,4))</f>
-        <v>✵</v>
-      </c>
-      <c r="P262" s="10">
-        <f ca="1">_xlfn.XLOOKUP(O262,_nSym,_nVal,0)</f>
-        <v>200000</v>
-      </c>
-      <c r="Q262" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>$Q$9</v>
-      </c>
-    </row>
-    <row r="263" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B263" s="33">
         <v>116</v>
       </c>
@@ -8289,36 +8518,41 @@
       <c r="J263" s="60" t="str">
         <v>↘</v>
       </c>
-      <c r="K263" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="K263" s="60"/>
       <c r="L263" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M263" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N263" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O263" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="P263" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="P263" ca="1">INDIRECT("Map!"&amp;ADDRESS(N263,O263,4))</f>
+        <v/>
+      </c>
+      <c r="Q263" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R263" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>$R$10</v>
+      </c>
+      <c r="S263" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M263" s="37">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="N263" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="O263" s="10" t="str" cm="1">
-        <f t="array" aca="1" ref="O263" ca="1">INDIRECT("Map!"&amp;ADDRESS(M263,N263,4))</f>
-        <v/>
-      </c>
-      <c r="P263" s="10">
-        <f ca="1">_xlfn.XLOOKUP(O263,_nSym,_nVal,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q263" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>$R$10</v>
-      </c>
-    </row>
-    <row r="264" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+    </row>
+    <row r="264" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B264" s="33">
         <v>117</v>
       </c>
@@ -8341,36 +8575,41 @@
       <c r="J264" s="60" t="str">
         <v>↑</v>
       </c>
-      <c r="K264" s="10">
-        <f t="shared" si="1"/>
+      <c r="K264" s="60"/>
+      <c r="L264" s="10">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="L264" s="10">
+      <c r="M264" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N264" s="37">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="O264" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="P264" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="P264" ca="1">INDIRECT("Map!"&amp;ADDRESS(N264,O264,4))</f>
+        <v/>
+      </c>
+      <c r="Q264" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R264" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>$R$9</v>
+      </c>
+      <c r="S264" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M264" s="37">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N264" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="O264" s="10" t="str" cm="1">
-        <f t="array" aca="1" ref="O264" ca="1">INDIRECT("Map!"&amp;ADDRESS(M264,N264,4))</f>
-        <v/>
-      </c>
-      <c r="P264" s="10">
-        <f ca="1">_xlfn.XLOOKUP(O264,_nSym,_nVal,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q264" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>$R$9</v>
-      </c>
-    </row>
-    <row r="265" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B265" s="33">
         <v>118</v>
       </c>
@@ -8393,36 +8632,37 @@
       <c r="J265" s="60" t="str">
         <v>→</v>
       </c>
-      <c r="K265" s="10">
-        <f t="shared" si="1"/>
+      <c r="K265" s="60"/>
+      <c r="L265" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L265" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M265" s="37">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M265" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N265" s="37">
+        <f t="shared" ca="1" si="5"/>
         <v>9</v>
       </c>
-      <c r="N265" s="10">
-        <f t="shared" ca="1" si="4"/>
+      <c r="O265" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>19</v>
       </c>
-      <c r="O265" s="10" t="str" cm="1">
-        <f t="array" aca="1" ref="O265" ca="1">INDIRECT("Map!"&amp;ADDRESS(M265,N265,4))</f>
+      <c r="P265" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="P265" ca="1">INDIRECT("Map!"&amp;ADDRESS(N265,O265,4))</f>
         <v>◆</v>
       </c>
-      <c r="P265" s="10">
-        <f ca="1">_xlfn.XLOOKUP(O265,_nSym,_nVal,0)</f>
+      <c r="Q265" s="10">
+        <f t="shared" ca="1" si="0"/>
         <v>250000</v>
       </c>
-      <c r="Q265" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="R265" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>$S$9</v>
       </c>
     </row>
-    <row r="266" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="266" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B266" s="33">
         <v>119</v>
       </c>
@@ -8442,9 +8682,9 @@
       <c r="H266" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="M266" s="61"/>
-    </row>
-    <row r="267" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N266" s="61"/>
+    </row>
+    <row r="267" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B267" s="33">
         <v>120</v>
       </c>
@@ -8464,9 +8704,13 @@
       <c r="H267" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="M267" s="61"/>
-    </row>
-    <row r="268" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="N267" s="61"/>
+      <c r="S267" s="168">
+        <f>MAX(S269:S288)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B268" s="33">
         <v>121</v>
       </c>
@@ -8486,13 +8730,17 @@
       <c r="H268" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="M268" s="61"/>
-      <c r="O268" s="10">
-        <f ca="1">P254</f>
+      <c r="N268" s="61"/>
+      <c r="P268" s="10">
+        <f ca="1">Q254</f>
         <v>1210000</v>
       </c>
-    </row>
-    <row r="269" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="S268" s="10">
+        <f>S254</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B269" s="33">
         <v>122</v>
       </c>
@@ -8512,26 +8760,36 @@
       <c r="H269" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="J269" s="162" t="s">
+      <c r="J269" s="138" t="s">
         <v>244</v>
       </c>
-      <c r="K269" s="163" t="s">
+      <c r="K269" s="138" t="s">
+        <v>245</v>
+      </c>
+      <c r="L269" s="139" t="s">
         <v>242</v>
       </c>
-      <c r="L269" s="165" t="s">
+      <c r="M269" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="M269" s="61"/>
-      <c r="N269" s="10" cm="1">
-        <f t="array" ref="N269:N288">_xlfn.SEQUENCE(20,1,3)</f>
+      <c r="N269" s="61"/>
+      <c r="O269" s="10" cm="1">
+        <f t="array" ref="O269:O288">_xlfn.SEQUENCE(20,1,3)</f>
         <v>3</v>
       </c>
-      <c r="O269" s="10">
-        <f t="dataTable" ref="O269:O288" dt2D="0" dtr="0" r1="I255" ca="1"/>
+      <c r="P269" s="10">
+        <f t="dataTable" ref="P269:P288" dt2D="0" dtr="0" r1="I255" ca="1"/>
         <v>1210000</v>
       </c>
-    </row>
-    <row r="270" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="R269" s="10">
+        <v>3</v>
+      </c>
+      <c r="S269" s="10">
+        <f t="dataTable" ref="S269:S288" dt2D="0" dtr="0" r1="I255" ca="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B270" s="33">
         <v>123</v>
       </c>
@@ -8554,21 +8812,30 @@
       <c r="J270" s="137" t="s">
         <v>228</v>
       </c>
-      <c r="K270" s="164">
+      <c r="K270" s="137">
+        <v>1</v>
+      </c>
+      <c r="L270" s="140">
         <v>-1</v>
       </c>
-      <c r="L270" s="166">
+      <c r="M270" s="142">
         <v>0</v>
       </c>
-      <c r="M270" s="61"/>
-      <c r="N270" s="10">
+      <c r="N270" s="61"/>
+      <c r="O270" s="10">
         <v>4</v>
       </c>
-      <c r="O270" s="10">
+      <c r="P270" s="10">
         <v>1180000</v>
       </c>
-    </row>
-    <row r="271" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="R270" s="10">
+        <v>4</v>
+      </c>
+      <c r="S270" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B271" s="33">
         <v>124</v>
       </c>
@@ -8591,21 +8858,30 @@
       <c r="J271" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="K271" s="164">
+      <c r="K271" s="137">
+        <v>2</v>
+      </c>
+      <c r="L271" s="140">
         <v>-1</v>
       </c>
-      <c r="L271" s="166">
-        <v>1</v>
-      </c>
-      <c r="M271" s="61"/>
-      <c r="N271" s="10">
+      <c r="M271" s="142">
+        <v>1</v>
+      </c>
+      <c r="N271" s="61"/>
+      <c r="O271" s="10">
         <v>5</v>
       </c>
-      <c r="O271" s="10">
+      <c r="P271" s="10">
         <v>720000</v>
       </c>
-    </row>
-    <row r="272" spans="2:17" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="R271" s="10">
+        <v>5</v>
+      </c>
+      <c r="S271" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B272" s="33">
         <v>125</v>
       </c>
@@ -8628,21 +8904,30 @@
       <c r="J272" s="137" t="s">
         <v>230</v>
       </c>
-      <c r="K272" s="164">
+      <c r="K272" s="137">
+        <v>1</v>
+      </c>
+      <c r="L272" s="140">
         <v>0</v>
       </c>
-      <c r="L272" s="166">
-        <v>1</v>
-      </c>
-      <c r="M272" s="61"/>
-      <c r="N272" s="10">
+      <c r="M272" s="142">
+        <v>1</v>
+      </c>
+      <c r="N272" s="61"/>
+      <c r="O272" s="10">
         <v>6</v>
       </c>
-      <c r="O272" s="10">
+      <c r="P272" s="10">
         <v>960000</v>
       </c>
-    </row>
-    <row r="273" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="R272" s="10">
+        <v>6</v>
+      </c>
+      <c r="S272" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B273" s="33">
         <v>126</v>
       </c>
@@ -8665,21 +8950,30 @@
       <c r="J273" s="137" t="s">
         <v>231</v>
       </c>
-      <c r="K273" s="164">
-        <v>1</v>
-      </c>
-      <c r="L273" s="166">
-        <v>1</v>
-      </c>
-      <c r="M273" s="61"/>
-      <c r="N273" s="10">
+      <c r="K273" s="137">
+        <v>2</v>
+      </c>
+      <c r="L273" s="140">
+        <v>1</v>
+      </c>
+      <c r="M273" s="142">
+        <v>1</v>
+      </c>
+      <c r="N273" s="61"/>
+      <c r="O273" s="10">
         <v>7</v>
       </c>
-      <c r="O273" s="10">
+      <c r="P273" s="10">
         <v>250000</v>
       </c>
-    </row>
-    <row r="274" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="R273" s="10">
+        <v>7</v>
+      </c>
+      <c r="S273" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B274" s="33">
         <v>127</v>
       </c>
@@ -8702,21 +8996,30 @@
       <c r="J274" s="137" t="s">
         <v>232</v>
       </c>
-      <c r="K274" s="164">
-        <v>1</v>
-      </c>
-      <c r="L274" s="166">
+      <c r="K274" s="137">
+        <v>1</v>
+      </c>
+      <c r="L274" s="140">
+        <v>1</v>
+      </c>
+      <c r="M274" s="142">
         <v>0</v>
       </c>
-      <c r="M274" s="61"/>
-      <c r="N274" s="10">
+      <c r="N274" s="61"/>
+      <c r="O274" s="10">
         <v>8</v>
       </c>
-      <c r="O274" s="10">
+      <c r="P274" s="10">
         <v>700000</v>
       </c>
-    </row>
-    <row r="275" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="R274" s="10">
+        <v>8</v>
+      </c>
+      <c r="S274" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B275" s="33">
         <v>128</v>
       </c>
@@ -8736,24 +9039,33 @@
       <c r="H275" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="J275" s="162" t="s">
+      <c r="J275" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="K275" s="164">
-        <v>1</v>
-      </c>
-      <c r="L275" s="166">
+      <c r="K275" s="138">
+        <v>2</v>
+      </c>
+      <c r="L275" s="140">
+        <v>1</v>
+      </c>
+      <c r="M275" s="142">
         <v>-1</v>
       </c>
-      <c r="M275" s="61"/>
-      <c r="N275" s="10">
+      <c r="N275" s="61"/>
+      <c r="O275" s="10">
         <v>9</v>
       </c>
-      <c r="O275" s="10">
+      <c r="P275" s="10">
         <v>970000</v>
       </c>
-    </row>
-    <row r="276" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="R275" s="10">
+        <v>9</v>
+      </c>
+      <c r="S275" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B276" s="33">
         <v>129</v>
       </c>
@@ -8773,24 +9085,33 @@
       <c r="H276" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="J276" s="162" t="s">
+      <c r="J276" s="138" t="s">
         <v>234</v>
       </c>
-      <c r="K276" s="164">
+      <c r="K276" s="138">
+        <v>1</v>
+      </c>
+      <c r="L276" s="140">
         <v>0</v>
       </c>
-      <c r="L276" s="166">
+      <c r="M276" s="142">
         <v>-1</v>
       </c>
-      <c r="M276" s="61"/>
-      <c r="N276" s="10">
+      <c r="N276" s="61"/>
+      <c r="O276" s="10">
         <v>10</v>
       </c>
-      <c r="O276" s="10">
+      <c r="P276" s="10">
         <v>340000</v>
       </c>
-    </row>
-    <row r="277" spans="2:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="R276" s="10">
+        <v>10</v>
+      </c>
+      <c r="S276" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="2:19" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="B277" s="33">
         <v>130</v>
       </c>
@@ -8810,161 +9131,238 @@
       <c r="H277" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="J277" s="162" t="s">
+      <c r="J277" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="K277" s="164">
+      <c r="K277" s="138">
+        <v>2</v>
+      </c>
+      <c r="L277" s="140">
         <v>-1</v>
       </c>
-      <c r="L277" s="166">
+      <c r="M277" s="142">
         <v>-1</v>
       </c>
-      <c r="M277" s="61"/>
-      <c r="N277" s="10">
+      <c r="N277" s="61"/>
+      <c r="O277" s="10">
         <v>11</v>
       </c>
-      <c r="O277" s="10">
+      <c r="P277" s="10">
         <v>690000</v>
       </c>
-    </row>
-    <row r="278" spans="2:15">
-      <c r="N278" s="1">
+      <c r="R277" s="10">
+        <v>11</v>
+      </c>
+      <c r="S277" s="10">
         <v>12</v>
       </c>
+    </row>
+    <row r="278" spans="2:19">
       <c r="O278" s="1">
+        <v>12</v>
+      </c>
+      <c r="P278" s="1">
         <v>1370000</v>
       </c>
-    </row>
-    <row r="279" spans="2:15" ht="23.4">
-      <c r="B279" s="145" t="s">
+      <c r="R278" s="1">
+        <v>12</v>
+      </c>
+      <c r="S278" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="2:19" ht="23.4">
+      <c r="B279" s="147" t="s">
         <v>201</v>
       </c>
-      <c r="C279" s="146"/>
-      <c r="D279" s="146"/>
-      <c r="E279" s="146"/>
-      <c r="F279" s="146"/>
-      <c r="G279" s="146"/>
-      <c r="H279" s="146"/>
-      <c r="I279" s="146"/>
-      <c r="J279" s="146"/>
-      <c r="K279" s="146"/>
-      <c r="L279" s="146"/>
-      <c r="M279" s="146"/>
-      <c r="N279" s="1">
+      <c r="C279" s="148"/>
+      <c r="D279" s="148"/>
+      <c r="E279" s="148"/>
+      <c r="F279" s="148"/>
+      <c r="G279" s="148"/>
+      <c r="H279" s="148"/>
+      <c r="I279" s="148"/>
+      <c r="J279" s="148"/>
+      <c r="K279" s="148"/>
+      <c r="L279" s="148"/>
+      <c r="M279" s="148"/>
+      <c r="N279" s="148"/>
+      <c r="O279" s="1">
         <v>13</v>
       </c>
-      <c r="O279" s="1">
+      <c r="P279" s="1">
         <v>960000</v>
       </c>
-    </row>
-    <row r="280" spans="2:15" ht="97.95" customHeight="1">
-      <c r="B280" s="147" t="s">
+      <c r="R279" s="1">
+        <v>13</v>
+      </c>
+      <c r="S279" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="2:19" ht="97.95" customHeight="1">
+      <c r="B280" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="C280" s="147"/>
-      <c r="D280" s="147"/>
-      <c r="E280" s="147"/>
-      <c r="F280" s="147"/>
-      <c r="G280" s="147"/>
-      <c r="H280" s="147"/>
-      <c r="I280" s="147"/>
-      <c r="J280" s="147"/>
-      <c r="K280" s="147"/>
-      <c r="L280" s="147"/>
-      <c r="M280" s="147"/>
-      <c r="N280" s="1">
+      <c r="C280" s="149"/>
+      <c r="D280" s="149"/>
+      <c r="E280" s="149"/>
+      <c r="F280" s="149"/>
+      <c r="G280" s="149"/>
+      <c r="H280" s="149"/>
+      <c r="I280" s="149"/>
+      <c r="J280" s="149"/>
+      <c r="K280" s="149"/>
+      <c r="L280" s="149"/>
+      <c r="M280" s="149"/>
+      <c r="N280" s="149"/>
+      <c r="O280" s="1">
         <v>14</v>
       </c>
-      <c r="O280" s="1">
+      <c r="P280" s="1">
         <v>960000</v>
       </c>
-    </row>
-    <row r="281" spans="2:15">
-      <c r="N281" s="1">
+      <c r="R280" s="1">
+        <v>14</v>
+      </c>
+      <c r="S280" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281" spans="2:19">
+      <c r="O281" s="1">
         <v>15</v>
       </c>
-      <c r="O281" s="1">
+      <c r="P281" s="1">
         <v>700000</v>
       </c>
-    </row>
-    <row r="282" spans="2:15">
-      <c r="N282" s="1">
+      <c r="R281" s="1">
+        <v>15</v>
+      </c>
+      <c r="S281" s="1">
         <v>16</v>
       </c>
+    </row>
+    <row r="282" spans="2:19">
       <c r="O282" s="1">
+        <v>16</v>
+      </c>
+      <c r="P282" s="1">
         <v>340000</v>
       </c>
-    </row>
-    <row r="283" spans="2:15">
-      <c r="N283" s="1">
+      <c r="R282" s="1">
+        <v>16</v>
+      </c>
+      <c r="S282" s="1">
         <v>17</v>
       </c>
+    </row>
+    <row r="283" spans="2:19">
       <c r="O283" s="1">
+        <v>17</v>
+      </c>
+      <c r="P283" s="1">
         <v>850000</v>
       </c>
-    </row>
-    <row r="284" spans="2:15">
-      <c r="N284" s="1">
+      <c r="R283" s="1">
+        <v>17</v>
+      </c>
+      <c r="S283" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="2:19">
+      <c r="O284" s="1">
         <v>18</v>
       </c>
-      <c r="O284" s="1">
+      <c r="P284" s="1">
         <v>1120000</v>
       </c>
-    </row>
-    <row r="285" spans="2:15">
-      <c r="N285" s="1">
+      <c r="R284" s="1">
+        <v>18</v>
+      </c>
+      <c r="S284" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="2:19">
+      <c r="O285" s="1">
         <v>19</v>
       </c>
-      <c r="O285" s="1">
+      <c r="P285" s="1">
         <v>1160000</v>
       </c>
-    </row>
-    <row r="286" spans="2:15">
-      <c r="N286" s="1">
+      <c r="R285" s="1">
+        <v>19</v>
+      </c>
+      <c r="S285" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="2:19">
+      <c r="O286" s="1">
         <v>20</v>
       </c>
-      <c r="O286" s="1">
+      <c r="P286" s="1">
         <v>830000</v>
       </c>
-    </row>
-    <row r="287" spans="2:15">
-      <c r="N287" s="1">
+      <c r="R286" s="1">
+        <v>20</v>
+      </c>
+      <c r="S286" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="2:19">
+      <c r="O287" s="1">
         <v>21</v>
       </c>
-      <c r="O287" s="1">
+      <c r="P287" s="1">
         <v>380000</v>
       </c>
-    </row>
-    <row r="288" spans="2:15">
-      <c r="N288" s="1">
+      <c r="R287" s="1">
+        <v>21</v>
+      </c>
+      <c r="S287" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="2:19">
+      <c r="O288" s="1">
         <v>22</v>
       </c>
-      <c r="O288" s="1">
+      <c r="P288" s="1">
         <v>600000</v>
+      </c>
+      <c r="R288" s="1">
+        <v>22</v>
+      </c>
+      <c r="S288" s="1">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B279:M279"/>
-    <mergeCell ref="B280:M280"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="B2:N2"/>
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B279:N279"/>
+    <mergeCell ref="B280:N280"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
-  <conditionalFormatting sqref="O20:O39">
+  <conditionalFormatting sqref="P20:P39">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>350000</formula>
     </cfRule>
@@ -9137,17 +9535,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="158" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="155"/>
-      <c r="F1" s="153" t="s">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+      <c r="F1" s="158" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="155"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="160"/>
     </row>
     <row r="2" spans="1:8" ht="16.95" customHeight="1">
       <c r="A2" s="67" t="s">
@@ -12179,8 +12577,8 @@
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:N280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="L273" sqref="L273"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8984375" defaultRowHeight="14.4"/>
@@ -12200,39 +12598,39 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" customHeight="1"/>
     <row r="2" spans="2:14" ht="59.25" customHeight="1">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="141"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="152"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1"/>
     <row r="4" spans="2:14" ht="33" customHeight="1">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="146"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="142" t="s">
+      <c r="L4" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="144"/>
+      <c r="M4" s="146"/>
     </row>
     <row r="5" spans="2:14" ht="196.2" customHeight="1">
       <c r="C5"/>
@@ -12242,10 +12640,10 @@
       <c r="N5"/>
     </row>
     <row r="6" spans="2:14" ht="33" customHeight="1">
-      <c r="L6" s="142" t="s">
+      <c r="L6" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="144"/>
+      <c r="M6" s="146"/>
     </row>
     <row r="7" spans="2:14" ht="34.950000000000003" customHeight="1">
       <c r="K7" s="4"/>
@@ -12253,52 +12651,52 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
     </row>
     <row r="9" spans="2:14" ht="152.4" customHeight="1">
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="149"/>
     </row>
     <row r="10" spans="2:14" ht="70.2" customHeight="1">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="153" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1">
       <c r="B11" s="5"/>
@@ -12315,20 +12713,20 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="144" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="144"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="146"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1">
       <c r="B13" s="7"/>
@@ -12378,15 +12776,15 @@
         <v>117</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="149" t="s">
+      <c r="G16" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="151"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="156"/>
     </row>
     <row r="17" spans="2:13" ht="33.75" customHeight="1">
       <c r="B17" s="15" t="s">
@@ -12405,15 +12803,15 @@
         <f>IF(ISBLANK(Case!E17),0,IF(E17=Case!E17,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G17" s="152" t="s">
+      <c r="G17" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="157"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1">
       <c r="B18" s="15" t="s">
@@ -12432,15 +12830,15 @@
         <f>IF(ISBLANK(Case!E18),0,IF(E18=Case!E18,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G18" s="138" t="s">
+      <c r="G18" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
     </row>
     <row r="19" spans="2:13" ht="33.75" customHeight="1">
       <c r="B19" s="15" t="s">
@@ -12459,15 +12857,15 @@
         <f>IF(ISBLANK(Case!E19),0,IF(E19=Case!E19,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G19" s="138" t="s">
+      <c r="G19" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
     </row>
     <row r="20" spans="2:13" ht="33.75" customHeight="1">
       <c r="B20" s="15" t="s">
@@ -12486,15 +12884,15 @@
         <f>IF(ISBLANK(Case!E20),0,IF(E20=Case!E20,1,-1))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="138" t="s">
+      <c r="G20" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
     </row>
     <row r="21" spans="2:13" ht="33.75" customHeight="1">
       <c r="B21" s="15" t="s">
@@ -12511,36 +12909,36 @@
       </c>
       <c r="F21" s="18">
         <f>IF(ISBLANK(Case!E21),0,IF(E21=Case!E21,1,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
     </row>
     <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:13" ht="23.4">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="144" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="144"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="146"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1" thickBot="1">
       <c r="B24" s="22"/>
@@ -12566,10 +12964,10 @@
       <c r="D25" s="18"/>
       <c r="E25" s="26"/>
       <c r="F25" s="18"/>
-      <c r="L25" s="142" t="s">
+      <c r="L25" s="144" t="s">
         <v>214</v>
       </c>
-      <c r="M25" s="144"/>
+      <c r="M25" s="146"/>
     </row>
     <row r="26" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="18"/>
@@ -12577,11 +12975,11 @@
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="L26" s="156">
+      <c r="L26" s="161">
         <f ca="1">SUMPRODUCT(--(F:F=1),D:D)</f>
-        <v>1180</v>
-      </c>
-      <c r="M26" s="157"/>
+        <v>1250</v>
+      </c>
+      <c r="M26" s="162"/>
     </row>
     <row r="27" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B27" s="26" t="s">
@@ -12591,16 +12989,16 @@
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="159"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="164"/>
     </row>
     <row r="28" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="161"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="166"/>
     </row>
     <row r="29" spans="2:13" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="B29" s="28" t="s">
@@ -17496,46 +17894,39 @@
       <c r="M277" s="61"/>
     </row>
     <row r="279" spans="2:13" ht="23.4">
-      <c r="B279" s="145" t="s">
+      <c r="B279" s="147" t="s">
         <v>201</v>
       </c>
-      <c r="C279" s="146"/>
-      <c r="D279" s="146"/>
-      <c r="E279" s="146"/>
-      <c r="F279" s="146"/>
-      <c r="G279" s="146"/>
-      <c r="H279" s="146"/>
-      <c r="I279" s="146"/>
-      <c r="J279" s="146"/>
-      <c r="K279" s="146"/>
-      <c r="L279" s="146"/>
-      <c r="M279" s="146"/>
+      <c r="C279" s="148"/>
+      <c r="D279" s="148"/>
+      <c r="E279" s="148"/>
+      <c r="F279" s="148"/>
+      <c r="G279" s="148"/>
+      <c r="H279" s="148"/>
+      <c r="I279" s="148"/>
+      <c r="J279" s="148"/>
+      <c r="K279" s="148"/>
+      <c r="L279" s="148"/>
+      <c r="M279" s="148"/>
     </row>
     <row r="280" spans="2:13" ht="97.95" customHeight="1">
-      <c r="B280" s="147" t="s">
+      <c r="B280" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="C280" s="147"/>
-      <c r="D280" s="147"/>
-      <c r="E280" s="147"/>
-      <c r="F280" s="147"/>
-      <c r="G280" s="147"/>
-      <c r="H280" s="147"/>
-      <c r="I280" s="147"/>
-      <c r="J280" s="147"/>
-      <c r="K280" s="147"/>
-      <c r="L280" s="147"/>
-      <c r="M280" s="147"/>
+      <c r="C280" s="149"/>
+      <c r="D280" s="149"/>
+      <c r="E280" s="149"/>
+      <c r="F280" s="149"/>
+      <c r="G280" s="149"/>
+      <c r="H280" s="149"/>
+      <c r="I280" s="149"/>
+      <c r="J280" s="149"/>
+      <c r="K280" s="149"/>
+      <c r="L280" s="149"/>
+      <c r="M280" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B280:M280"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M28"/>
-    <mergeCell ref="B279:M279"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:J4"/>
@@ -17548,6 +17939,13 @@
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
+    <mergeCell ref="B280:M280"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M28"/>
+    <mergeCell ref="B279:M279"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
